--- a/7. Návody pro ocenění/Odznaky.xlsx
+++ b/7. Návody pro ocenění/Odznaky.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpesek\Documents\Projekty\BattleField2Ranks\7. Návody pro ocenění\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpesek\Documents\Final Projects\BFHQ\7. Návody pro ocenění\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193E97FC-FF48-4636-A899-82C7392DB164}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F563A515-CEAF-4A87-96B5-E6F9FF5E686F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="238">
   <si>
     <t>Obrázek</t>
   </si>
@@ -76,9 +76,6 @@
     <t>kills4</t>
   </si>
   <si>
-    <t>Základní práce speciálních jednotek</t>
-  </si>
-  <si>
     <t>kills5</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>10 zabití v jednom kole jako Kulometčík</t>
   </si>
   <si>
-    <t>10 zabití v jednom kole jako Inžnýr</t>
-  </si>
-  <si>
     <t>kills2</t>
   </si>
   <si>
@@ -295,9 +289,6 @@
     <t>20 zabití v jednom kole jako Kulometčík</t>
   </si>
   <si>
-    <t>20 zabití v jednom kole jako Spec. jednotka</t>
-  </si>
-  <si>
     <t>20 zabití v jednom kole jako Inženýr</t>
   </si>
   <si>
@@ -308,9 +299,6 @@
   </si>
   <si>
     <t>Veterán-boj s nožem</t>
-  </si>
-  <si>
-    <t>20 zabití v jednom kole jako Zdraotník</t>
   </si>
   <si>
     <t>kill3</t>
@@ -532,9 +520,6 @@
     <t>Celkově 100 hodin jako Zdravotník</t>
   </si>
   <si>
-    <t>40 zabití v jednom kole jako Zdraotník</t>
-  </si>
-  <si>
     <t>Celkově 100 hodin jako Bazukář</t>
   </si>
   <si>
@@ -565,9 +550,6 @@
     <t>Celkově 75 hodin v autě nebo člunu</t>
   </si>
   <si>
-    <t>2000 speciálních dovedností (poznámka dole)</t>
-  </si>
-  <si>
     <t>11 přejetím v jednom kole autem</t>
   </si>
   <si>
@@ -761,6 +743,30 @@
   </si>
   <si>
     <t>Expertní transport</t>
+  </si>
+  <si>
+    <t>10 zabití v jednom kole jako Inženýr</t>
+  </si>
+  <si>
+    <t>20 zabití v jednom kole jako Zdravotník</t>
+  </si>
+  <si>
+    <t>Základní práce spec. Jednotek</t>
+  </si>
+  <si>
+    <t>20 zabití v jednom kole jako spec. jednotka</t>
+  </si>
+  <si>
+    <t>Proti tankový boj</t>
+  </si>
+  <si>
+    <t>Základní obrn. Jednotky</t>
+  </si>
+  <si>
+    <t>40 zabití v jednom kole jako Zdravotník</t>
+  </si>
+  <si>
+    <t>2000 speciálních dovedností</t>
   </si>
 </sst>
 </file>
@@ -1100,8 +1106,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1112,46 +1133,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1165,51 +1180,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1265,41 +1235,77 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4588,29 +4594,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="C193" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="27" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="3.88671875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="1.6640625" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="1.7109375" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4620,7 +4626,7 @@
     </row>
     <row r="3" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4631,48 +4637,48 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="71" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="99"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="76"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="13" t="s">
         <v>5</v>
       </c>
@@ -4680,88 +4686,88 @@
         <v>8</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="79"/>
+        <v>78</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34">
+      <c r="A7" s="37">
         <v>1</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="98" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="34">
         <v>5</v>
       </c>
-      <c r="H7" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="96">
+      <c r="H7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="34">
         <v>1031115</v>
       </c>
-      <c r="J7" s="96" t="s">
+      <c r="J7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="96">
+      <c r="K7" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="96"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34">
+      <c r="A10" s="37">
         <v>2</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>18</v>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>17</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="33">
         <v>10</v>
@@ -4780,10 +4786,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -4793,10 +4799,10 @@
       <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
@@ -4806,80 +4812,80 @@
       <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+      <c r="A13" s="37">
         <v>3</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="98" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="96" t="s">
+      <c r="G13" s="34">
+        <v>5</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="34">
+        <v>1031119</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="37">
+        <v>4</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="41" t="s">
         <v>20</v>
-      </c>
-      <c r="G13" s="96">
-        <v>5</v>
-      </c>
-      <c r="H13" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="96">
-        <v>1031119</v>
-      </c>
-      <c r="J13" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-    </row>
-    <row r="15" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-    </row>
-    <row r="16" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34">
-        <v>4</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>21</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="33">
         <v>10</v>
@@ -4898,10 +4904,10 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -4911,10 +4917,10 @@
       <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -4924,80 +4930,80 @@
       <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34">
+      <c r="A19" s="37">
         <v>5</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="98" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="34">
+        <v>10</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="34">
+        <v>1031105</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="37">
+        <v>6</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="41" t="s">
         <v>22</v>
-      </c>
-      <c r="E19" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="96">
-        <v>10</v>
-      </c>
-      <c r="H19" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="96">
-        <v>1031105</v>
-      </c>
-      <c r="J19" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-    </row>
-    <row r="21" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-    </row>
-    <row r="22" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="34">
-        <v>6</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>24</v>
       </c>
       <c r="E22" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G22" s="33">
         <v>10</v>
@@ -5016,10 +5022,10 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -5029,10 +5035,10 @@
       <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -5042,84 +5048,84 @@
       <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
-        <v>7</v>
-      </c>
-      <c r="B25" s="97"/>
-      <c r="C25" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="98" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="96" t="s">
+      <c r="A25" s="37">
+        <v>7</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="96">
+      <c r="F25" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="34">
         <v>10</v>
       </c>
-      <c r="H25" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="96">
+      <c r="H25" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="34">
         <v>1031120</v>
       </c>
-      <c r="J25" s="96" t="s">
+      <c r="J25" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="96">
+      <c r="K25" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-    </row>
-    <row r="27" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+    </row>
+    <row r="27" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34">
+    <row r="28" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37">
         <v>8</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>28</v>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>26</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" s="33">
         <v>5</v>
@@ -5141,11 +5147,11 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
+    <row r="29" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -5158,11 +5164,11 @@
       <c r="O29"/>
       <c r="P29"/>
     </row>
-    <row r="30" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+    <row r="30" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -5175,36 +5181,36 @@
       <c r="O30"/>
       <c r="P30"/>
     </row>
-    <row r="31" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34">
+    <row r="31" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
         <v>9</v>
       </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="96">
-        <v>7</v>
-      </c>
-      <c r="H31" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="96">
+      <c r="B31" s="38"/>
+      <c r="C31" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="34">
+        <v>7</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="34">
         <v>1031406</v>
       </c>
-      <c r="J31" s="96" t="s">
+      <c r="J31" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="96">
+      <c r="K31" s="34">
         <v>1</v>
       </c>
       <c r="M31"/>
@@ -5212,35 +5218,35 @@
       <c r="O31"/>
       <c r="P31"/>
     </row>
-    <row r="32" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
+    <row r="32" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
     </row>
     <row r="33" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
     </row>
     <row r="34" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
@@ -5251,29 +5257,29 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="34">
+      <c r="A35" s="37">
         <v>10</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="36" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="33" t="s">
         <v>32</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>34</v>
       </c>
       <c r="G35" s="33">
         <v>300</v>
       </c>
-      <c r="H35" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="37">
+      <c r="H35" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="42">
         <v>1031923</v>
       </c>
       <c r="J35" s="33" t="s">
@@ -5284,114 +5290,114 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
       <c r="E36" s="33"/>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
     </row>
     <row r="37" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
     </row>
     <row r="38" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34">
+      <c r="A38" s="37">
         <v>11</v>
       </c>
-      <c r="B38" s="97"/>
-      <c r="C38" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="98" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="34">
+        <v>600</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="34">
+        <v>1220104</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+    </row>
+    <row r="40" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+    </row>
+    <row r="41" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37">
+        <v>12</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="33" t="s">
         <v>35</v>
-      </c>
-      <c r="E38" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="96">
-        <v>600</v>
-      </c>
-      <c r="H38" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="96">
-        <v>1220104</v>
-      </c>
-      <c r="J38" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="34"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-    </row>
-    <row r="40" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-    </row>
-    <row r="41" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34">
-        <v>12</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>37</v>
       </c>
       <c r="G41" s="33">
         <v>600</v>
       </c>
-      <c r="H41" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="37">
+      <c r="H41" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="42">
         <v>1222016</v>
       </c>
       <c r="J41" s="33" t="s">
@@ -5402,114 +5408,114 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
     </row>
     <row r="43" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
       <c r="J43" s="33"/>
       <c r="K43" s="33"/>
     </row>
     <row r="44" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34">
+      <c r="A44" s="37">
         <v>13</v>
       </c>
-      <c r="B44" s="97"/>
-      <c r="C44" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="F44" s="96" t="s">
+      <c r="B44" s="38"/>
+      <c r="C44" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="34">
+        <v>600</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="34">
+        <v>1220118</v>
+      </c>
+      <c r="J44" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+    </row>
+    <row r="46" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="37"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+    </row>
+    <row r="47" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="37">
+        <v>14</v>
+      </c>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="33" t="s">
         <v>38</v>
-      </c>
-      <c r="G44" s="96">
-        <v>600</v>
-      </c>
-      <c r="H44" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="96">
-        <v>1220118</v>
-      </c>
-      <c r="J44" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-    </row>
-    <row r="46" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="34"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-    </row>
-    <row r="47" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="34">
-        <v>14</v>
-      </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>40</v>
       </c>
       <c r="G47" s="33">
         <v>600</v>
       </c>
-      <c r="H47" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="37">
+      <c r="H47" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="42">
         <v>1220122</v>
       </c>
       <c r="J47" s="33" t="s">
@@ -5520,89 +5526,89 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
     </row>
     <row r="49" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
       <c r="J49" s="33"/>
       <c r="K49" s="33"/>
     </row>
     <row r="50" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="34">
+      <c r="A50" s="37">
         <v>15</v>
       </c>
-      <c r="B50" s="97"/>
-      <c r="C50" s="98" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="96" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="96" t="s">
-        <v>39</v>
-      </c>
-      <c r="G50" s="96">
+      <c r="B50" s="38"/>
+      <c r="C50" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" s="34">
         <v>800</v>
       </c>
-      <c r="H50" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="96">
+      <c r="H50" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="34">
         <v>1220803</v>
       </c>
-      <c r="J50" s="96" t="s">
+      <c r="J50" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K50" s="96">
+      <c r="K50" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="34"/>
-      <c r="B51" s="97"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
     </row>
     <row r="52" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="34"/>
-      <c r="B52" s="97"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="96"/>
-      <c r="G52" s="96"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="96"/>
-      <c r="K52" s="96"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
     </row>
     <row r="53" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
@@ -5615,29 +5621,29 @@
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="34">
+      <c r="A54" s="37">
         <v>16</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>42</v>
+      <c r="B54" s="40"/>
+      <c r="C54" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G54" s="33">
         <v>5</v>
       </c>
-      <c r="H54" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="37">
+      <c r="H54" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="42">
         <v>1032415</v>
       </c>
       <c r="J54" s="33" t="s">
@@ -5648,32 +5654,32 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="34"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
       <c r="E55" s="33"/>
       <c r="F55" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G55" s="33"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
       <c r="E56" s="33"/>
       <c r="F56" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G56" s="33"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
       <c r="J56" s="33"/>
       <c r="K56" s="33"/>
     </row>
@@ -5689,7 +5695,7 @@
     </row>
     <row r="58" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -5700,88 +5706,88 @@
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="34">
+      <c r="A59" s="37">
         <v>17</v>
       </c>
-      <c r="B59" s="97"/>
-      <c r="C59" s="98" t="s">
-        <v>190</v>
-      </c>
-      <c r="D59" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="96" t="s">
+      <c r="B59" s="38"/>
+      <c r="C59" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="G59" s="96">
+      <c r="F59" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" s="34">
         <v>5</v>
       </c>
-      <c r="H59" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="96">
+      <c r="H59" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="34">
         <v>1191819</v>
       </c>
-      <c r="J59" s="96" t="s">
+      <c r="J59" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="96">
+      <c r="K59" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="34"/>
-      <c r="B60" s="97"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="96"/>
-      <c r="K60" s="96"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
     </row>
     <row r="61" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="34"/>
-      <c r="B61" s="97"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="96"/>
-      <c r="K61" s="96"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
     </row>
     <row r="62" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="34">
+      <c r="A62" s="37">
         <v>18</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>49</v>
+      <c r="B62" s="40"/>
+      <c r="C62" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>47</v>
       </c>
       <c r="E62" s="33" t="s">
         <v>6</v>
       </c>
       <c r="F62" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G62" s="33">
         <v>5</v>
       </c>
-      <c r="H62" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="37">
+      <c r="H62" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="42">
         <v>1190507</v>
       </c>
       <c r="J62" s="33" t="s">
@@ -5792,89 +5798,89 @@
       </c>
     </row>
     <row r="63" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
       <c r="J63" s="33"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="34"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
       <c r="J64" s="33"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="34">
+      <c r="A65" s="37">
         <v>19</v>
       </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="98" t="s">
-        <v>189</v>
-      </c>
-      <c r="D65" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="96" t="s">
+      <c r="B65" s="38"/>
+      <c r="C65" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="G65" s="96">
+      <c r="F65" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="34">
         <v>5</v>
       </c>
-      <c r="H65" s="96" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="96">
+      <c r="H65" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="34">
         <v>1190601</v>
       </c>
-      <c r="J65" s="96" t="s">
+      <c r="J65" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K65" s="96">
+      <c r="K65" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="34"/>
-      <c r="B66" s="97"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="96"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="96"/>
-      <c r="J66" s="96"/>
-      <c r="K66" s="96"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
     </row>
     <row r="67" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="34"/>
-      <c r="B67" s="97"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="98"/>
-      <c r="E67" s="96"/>
-      <c r="F67" s="96"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="96"/>
-      <c r="K67" s="96"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
     </row>
     <row r="68" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -5888,7 +5894,7 @@
     </row>
     <row r="69" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -5900,7 +5906,7 @@
     </row>
     <row r="70" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -5912,7 +5918,7 @@
     </row>
     <row r="71" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -5924,7 +5930,7 @@
     </row>
     <row r="72" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -5936,7 +5942,7 @@
     </row>
     <row r="73" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -5948,7 +5954,7 @@
     </row>
     <row r="74" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -5959,29 +5965,29 @@
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="34">
+      <c r="A75" s="37">
         <v>20</v>
       </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" s="36" t="s">
-        <v>53</v>
+      <c r="B75" s="40"/>
+      <c r="C75" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>51</v>
       </c>
       <c r="E75" s="33" t="s">
         <v>6</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G75" s="33">
         <v>40</v>
       </c>
-      <c r="H75" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I75" s="37">
+      <c r="H75" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="42">
         <v>1190304</v>
       </c>
       <c r="J75" s="33" t="s">
@@ -5992,28 +5998,28 @@
       </c>
     </row>
     <row r="76" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="34"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
       <c r="E76" s="33"/>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
       <c r="J76" s="33"/>
       <c r="K76" s="33"/>
     </row>
     <row r="77" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="34"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
       <c r="E77" s="33"/>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
       <c r="J77" s="33"/>
       <c r="K77" s="33"/>
     </row>
@@ -6025,48 +6031,48 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="94"/>
-      <c r="B79" s="94" t="s">
+      <c r="A79" s="44"/>
+      <c r="B79" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="95" t="s">
+      <c r="C79" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="94" t="s">
+      <c r="D79" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="94"/>
-      <c r="F79" s="94"/>
-      <c r="G79" s="94"/>
-      <c r="H79" s="80" t="s">
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="I79" s="81"/>
-      <c r="J79" s="81"/>
-      <c r="K79" s="82"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="70"/>
     </row>
     <row r="80" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="94"/>
-      <c r="B80" s="94"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="95" t="s">
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="94" t="s">
+      <c r="E80" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F80" s="94"/>
-      <c r="G80" s="94"/>
-      <c r="H80" s="83"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="84"/>
-      <c r="K80" s="85"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="72"/>
+      <c r="K80" s="73"/>
     </row>
     <row r="81" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="94"/>
-      <c r="B81" s="94"/>
-      <c r="C81" s="95"/>
-      <c r="D81" s="95"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
       <c r="E81" s="15" t="s">
         <v>5</v>
       </c>
@@ -6074,26 +6080,26 @@
         <v>8</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H81" s="86"/>
-      <c r="I81" s="87"/>
-      <c r="J81" s="87"/>
-      <c r="K81" s="88"/>
+        <v>78</v>
+      </c>
+      <c r="H81" s="74"/>
+      <c r="I81" s="75"/>
+      <c r="J81" s="75"/>
+      <c r="K81" s="76"/>
     </row>
     <row r="82" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="34">
+      <c r="A82" s="37">
         <v>1</v>
       </c>
-      <c r="B82" s="89"/>
-      <c r="C82" s="90" t="s">
-        <v>197</v>
+      <c r="B82" s="46"/>
+      <c r="C82" s="47" t="s">
+        <v>191</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F82" s="8" t="s">
         <v>7</v>
@@ -6101,46 +6107,46 @@
       <c r="G82" s="8">
         <v>1031115</v>
       </c>
-      <c r="H82" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="I82" s="91">
+      <c r="H82" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="43">
         <v>1031115</v>
       </c>
-      <c r="J82" s="91" t="s">
+      <c r="J82" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K82" s="91">
+      <c r="K82" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="34"/>
-      <c r="B83" s="89"/>
-      <c r="C83" s="90"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G83" s="8">
         <v>54000</v>
       </c>
-      <c r="H83" s="91"/>
-      <c r="I83" s="91"/>
-      <c r="J83" s="91"/>
-      <c r="K83" s="91"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
     </row>
     <row r="84" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="34"/>
-      <c r="B84" s="89"/>
-      <c r="C84" s="90"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="12" t="s">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>13</v>
@@ -6151,24 +6157,24 @@
       <c r="G84" s="8">
         <v>20</v>
       </c>
-      <c r="H84" s="91"/>
-      <c r="I84" s="91"/>
-      <c r="J84" s="91"/>
-      <c r="K84" s="91"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
     </row>
     <row r="85" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="34">
+      <c r="A85" s="37">
         <v>2</v>
       </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="36" t="s">
-        <v>193</v>
+      <c r="B85" s="40"/>
+      <c r="C85" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>7</v>
@@ -6190,17 +6196,17 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="34"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="36"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="41"/>
       <c r="D86" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G86" s="9">
         <v>54000</v>
@@ -6211,17 +6217,17 @@
       <c r="K86" s="33"/>
     </row>
     <row r="87" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="34"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="36"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="41"/>
       <c r="D87" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G87" s="9">
         <v>15</v>
@@ -6232,18 +6238,18 @@
       <c r="K87" s="33"/>
     </row>
     <row r="88" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="34">
+      <c r="A88" s="37">
         <v>3</v>
       </c>
-      <c r="B88" s="89"/>
-      <c r="C88" s="90" t="s">
-        <v>199</v>
+      <c r="B88" s="46"/>
+      <c r="C88" s="47" t="s">
+        <v>193</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>7</v>
@@ -6251,74 +6257,74 @@
       <c r="G88" s="20">
         <v>1031119</v>
       </c>
-      <c r="H88" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="I88" s="91">
+      <c r="H88" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="43">
         <v>1031119</v>
       </c>
-      <c r="J88" s="91" t="s">
+      <c r="J88" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K88" s="91">
+      <c r="K88" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="34"/>
-      <c r="B89" s="89"/>
-      <c r="C89" s="90"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G89" s="8">
         <v>54000</v>
       </c>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="91"/>
-      <c r="K89" s="91"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
     </row>
     <row r="90" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="34"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="90"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G90" s="8">
         <v>20</v>
       </c>
-      <c r="H90" s="91"/>
-      <c r="I90" s="91"/>
-      <c r="J90" s="91"/>
-      <c r="K90" s="91"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
     </row>
     <row r="91" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="34">
+      <c r="A91" s="37">
         <v>4</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="36" t="s">
-        <v>202</v>
+      <c r="B91" s="40"/>
+      <c r="C91" s="41" t="s">
+        <v>196</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>7</v>
@@ -6340,17 +6346,17 @@
       </c>
     </row>
     <row r="92" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="34"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="36"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="41"/>
       <c r="D92" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E92" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G92" s="9">
         <v>54000</v>
@@ -6361,17 +6367,17 @@
       <c r="K92" s="33"/>
     </row>
     <row r="93" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="34"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="36"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="41"/>
       <c r="D93" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G93" s="9">
         <v>20</v>
@@ -6382,18 +6388,18 @@
       <c r="K93" s="33"/>
     </row>
     <row r="94" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="34">
+      <c r="A94" s="37">
         <v>5</v>
       </c>
-      <c r="B94" s="89"/>
-      <c r="C94" s="90" t="s">
-        <v>192</v>
+      <c r="B94" s="46"/>
+      <c r="C94" s="47" t="s">
+        <v>186</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F94" s="8" t="s">
         <v>7</v>
@@ -6401,74 +6407,74 @@
       <c r="G94" s="20">
         <v>1031105</v>
       </c>
-      <c r="H94" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="I94" s="91">
+      <c r="H94" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="43">
         <v>1031105</v>
       </c>
-      <c r="J94" s="91" t="s">
+      <c r="J94" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K94" s="91">
+      <c r="K94" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="34"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="90"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="47"/>
       <c r="D95" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G95" s="8">
         <v>54000</v>
       </c>
-      <c r="H95" s="91"/>
-      <c r="I95" s="91"/>
-      <c r="J95" s="91"/>
-      <c r="K95" s="91"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="43"/>
     </row>
     <row r="96" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="34"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="90"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G96" s="8">
         <v>20</v>
       </c>
-      <c r="H96" s="91"/>
-      <c r="I96" s="91"/>
-      <c r="J96" s="91"/>
-      <c r="K96" s="91"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
     </row>
     <row r="97" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="34">
+      <c r="A97" s="37">
         <v>6</v>
       </c>
-      <c r="B97" s="35"/>
-      <c r="C97" s="36" t="s">
-        <v>196</v>
+      <c r="B97" s="40"/>
+      <c r="C97" s="41" t="s">
+        <v>190</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>7</v>
@@ -6490,17 +6496,17 @@
       </c>
     </row>
     <row r="98" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="34"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="36"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="41"/>
       <c r="D98" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E98" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G98" s="9">
         <v>54000</v>
@@ -6511,17 +6517,17 @@
       <c r="K98" s="33"/>
     </row>
     <row r="99" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="34"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="36"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="40"/>
+      <c r="C99" s="41"/>
       <c r="D99" s="18" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G99" s="9">
         <v>20</v>
@@ -6532,18 +6538,18 @@
       <c r="K99" s="33"/>
     </row>
     <row r="100" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="34">
-        <v>7</v>
-      </c>
-      <c r="B100" s="89"/>
-      <c r="C100" s="90" t="s">
-        <v>201</v>
+      <c r="A100" s="37">
+        <v>7</v>
+      </c>
+      <c r="B100" s="46"/>
+      <c r="C100" s="47" t="s">
+        <v>195</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F100" s="8" t="s">
         <v>7</v>
@@ -6551,74 +6557,74 @@
       <c r="G100" s="8">
         <v>1031120</v>
       </c>
-      <c r="H100" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="I100" s="91">
+      <c r="H100" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I100" s="43">
         <v>1031120</v>
       </c>
-      <c r="J100" s="91" t="s">
+      <c r="J100" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K100" s="91">
+      <c r="K100" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="34"/>
-      <c r="B101" s="89"/>
-      <c r="C101" s="90"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="47"/>
       <c r="D101" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G101" s="8">
         <v>54000</v>
       </c>
-      <c r="H101" s="91"/>
-      <c r="I101" s="91"/>
-      <c r="J101" s="91"/>
-      <c r="K101" s="91"/>
+      <c r="H101" s="43"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="43"/>
     </row>
     <row r="102" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="34"/>
-      <c r="B102" s="89"/>
-      <c r="C102" s="90"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="47"/>
       <c r="D102" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G102" s="8">
         <v>20</v>
       </c>
-      <c r="H102" s="91"/>
-      <c r="I102" s="91"/>
-      <c r="J102" s="91"/>
-      <c r="K102" s="91"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="43"/>
     </row>
     <row r="103" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="34">
+      <c r="A103" s="37">
         <v>8</v>
       </c>
-      <c r="B103" s="35"/>
-      <c r="C103" s="36" t="s">
-        <v>203</v>
+      <c r="B103" s="40"/>
+      <c r="C103" s="41" t="s">
+        <v>197</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>7</v>
@@ -6640,17 +6646,17 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="34"/>
-      <c r="B104" s="35"/>
-      <c r="C104" s="36"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="41"/>
       <c r="D104" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G104" s="9">
         <v>50</v>
@@ -6661,17 +6667,17 @@
       <c r="K104" s="33"/>
     </row>
     <row r="105" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="34"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="36"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="41"/>
       <c r="D105" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G105" s="9">
         <v>7</v>
@@ -6682,18 +6688,18 @@
       <c r="K105" s="33"/>
     </row>
     <row r="106" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="34">
+      <c r="A106" s="37">
         <v>9</v>
       </c>
-      <c r="B106" s="89"/>
-      <c r="C106" s="90" t="s">
-        <v>204</v>
+      <c r="B106" s="46"/>
+      <c r="C106" s="47" t="s">
+        <v>198</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>7</v>
@@ -6701,52 +6707,52 @@
       <c r="G106" s="8">
         <v>1031406</v>
       </c>
-      <c r="H106" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="I106" s="91">
+      <c r="H106" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106" s="43">
         <v>1031406</v>
       </c>
-      <c r="J106" s="91" t="s">
+      <c r="J106" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K106" s="91">
+      <c r="K106" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="34"/>
-      <c r="B107" s="89"/>
-      <c r="C107" s="90"/>
-      <c r="D107" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="E107" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="F107" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="G107" s="67">
+      <c r="A107" s="37"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E107" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G107" s="48">
         <v>50</v>
       </c>
-      <c r="H107" s="91"/>
-      <c r="I107" s="91"/>
-      <c r="J107" s="91"/>
-      <c r="K107" s="91"/>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="43"/>
     </row>
     <row r="108" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="34"/>
-      <c r="B108" s="89"/>
-      <c r="C108" s="90"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="68"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="68"/>
-      <c r="H108" s="91"/>
-      <c r="I108" s="91"/>
-      <c r="J108" s="91"/>
-      <c r="K108" s="91"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="43"/>
     </row>
     <row r="109" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
@@ -6758,18 +6764,18 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="34">
+      <c r="A110" s="37">
         <v>10</v>
       </c>
-      <c r="B110" s="35"/>
-      <c r="C110" s="36" t="s">
-        <v>205</v>
+      <c r="B110" s="40"/>
+      <c r="C110" s="41" t="s">
+        <v>199</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F110" s="9" t="s">
         <v>7</v>
@@ -6777,10 +6783,10 @@
       <c r="G110" s="9">
         <v>1031923</v>
       </c>
-      <c r="H110" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I110" s="37">
+      <c r="H110" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110" s="42">
         <v>1031923</v>
       </c>
       <c r="J110" s="33" t="s">
@@ -6791,52 +6797,52 @@
       </c>
     </row>
     <row r="111" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="34"/>
-      <c r="B111" s="35"/>
-      <c r="C111" s="36"/>
-      <c r="D111" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="E111" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F111" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" s="52">
+      <c r="A111" s="37"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E111" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="55">
         <v>10</v>
       </c>
-      <c r="H111" s="37"/>
-      <c r="I111" s="37"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
       <c r="J111" s="33"/>
       <c r="K111" s="33"/>
     </row>
     <row r="112" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="34"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="36"/>
-      <c r="D112" s="51"/>
-      <c r="E112" s="54"/>
-      <c r="F112" s="54"/>
-      <c r="G112" s="54"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="37"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="57"/>
+      <c r="G112" s="57"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
       <c r="J112" s="33"/>
       <c r="K112" s="33"/>
     </row>
     <row r="113" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="34">
+      <c r="A113" s="37">
         <v>11</v>
       </c>
-      <c r="B113" s="89"/>
-      <c r="C113" s="90" t="s">
-        <v>211</v>
+      <c r="B113" s="46"/>
+      <c r="C113" s="47" t="s">
+        <v>205</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F113" s="8" t="s">
         <v>7</v>
@@ -6844,66 +6850,66 @@
       <c r="G113" s="8">
         <v>1220104</v>
       </c>
-      <c r="H113" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="I113" s="91">
+      <c r="H113" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I113" s="43">
         <v>1220104</v>
       </c>
-      <c r="J113" s="91" t="s">
+      <c r="J113" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K113" s="91">
+      <c r="K113" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="34"/>
-      <c r="B114" s="89"/>
-      <c r="C114" s="90"/>
-      <c r="D114" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="E114" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="F114" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" s="67">
+      <c r="A114" s="37"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E114" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F114" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" s="48">
         <v>10</v>
       </c>
-      <c r="H114" s="91"/>
-      <c r="I114" s="91"/>
-      <c r="J114" s="91"/>
-      <c r="K114" s="91"/>
+      <c r="H114" s="43"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="43"/>
+      <c r="K114" s="43"/>
     </row>
     <row r="115" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="34"/>
-      <c r="B115" s="89"/>
-      <c r="C115" s="90"/>
-      <c r="D115" s="93"/>
-      <c r="E115" s="68"/>
-      <c r="F115" s="68"/>
-      <c r="G115" s="68"/>
-      <c r="H115" s="91"/>
-      <c r="I115" s="91"/>
-      <c r="J115" s="91"/>
-      <c r="K115" s="91"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="43"/>
+      <c r="I115" s="43"/>
+      <c r="J115" s="43"/>
+      <c r="K115" s="43"/>
     </row>
     <row r="116" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="34">
+      <c r="A116" s="37">
         <v>12</v>
       </c>
-      <c r="B116" s="35"/>
-      <c r="C116" s="36" t="s">
-        <v>215</v>
+      <c r="B116" s="40"/>
+      <c r="C116" s="41" t="s">
+        <v>209</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F116" s="9" t="s">
         <v>7</v>
@@ -6911,10 +6917,10 @@
       <c r="G116" s="9">
         <v>1222016</v>
       </c>
-      <c r="H116" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I116" s="37">
+      <c r="H116" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116" s="42">
         <v>1222016</v>
       </c>
       <c r="J116" s="33" t="s">
@@ -6925,81 +6931,81 @@
       </c>
     </row>
     <row r="117" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="34"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="36"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="41"/>
       <c r="D117" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G117" s="9">
         <v>90000</v>
       </c>
-      <c r="H117" s="37"/>
-      <c r="I117" s="37"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
       <c r="J117" s="33"/>
       <c r="K117" s="33"/>
     </row>
     <row r="118" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="34"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="36"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="40"/>
+      <c r="C118" s="41"/>
       <c r="D118" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G118" s="9">
         <v>200</v>
       </c>
-      <c r="H118" s="37"/>
-      <c r="I118" s="37"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
       <c r="J118" s="33"/>
       <c r="K118" s="33"/>
     </row>
     <row r="119" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="34"/>
-      <c r="B119" s="35"/>
-      <c r="C119" s="36"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="41"/>
       <c r="D119" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G119" s="9">
         <v>5</v>
       </c>
-      <c r="H119" s="37"/>
-      <c r="I119" s="37"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
       <c r="J119" s="33"/>
       <c r="K119" s="33"/>
     </row>
     <row r="120" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="34">
+      <c r="A120" s="37">
         <v>13</v>
       </c>
-      <c r="B120" s="89"/>
-      <c r="C120" s="90" t="s">
-        <v>212</v>
+      <c r="B120" s="46"/>
+      <c r="C120" s="47" t="s">
+        <v>206</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F120" s="8" t="s">
         <v>7</v>
@@ -7007,74 +7013,74 @@
       <c r="G120" s="8">
         <v>1220118</v>
       </c>
-      <c r="H120" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="I120" s="91">
+      <c r="H120" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I120" s="43">
         <v>1220118</v>
       </c>
-      <c r="J120" s="91" t="s">
+      <c r="J120" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K120" s="91">
+      <c r="K120" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="34"/>
-      <c r="B121" s="89"/>
-      <c r="C121" s="90"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="47"/>
       <c r="D121" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G121" s="8">
         <v>360000</v>
       </c>
-      <c r="H121" s="91"/>
-      <c r="I121" s="91"/>
-      <c r="J121" s="91"/>
-      <c r="K121" s="91"/>
+      <c r="H121" s="43"/>
+      <c r="I121" s="43"/>
+      <c r="J121" s="43"/>
+      <c r="K121" s="43"/>
     </row>
     <row r="122" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="34"/>
-      <c r="B122" s="89"/>
-      <c r="C122" s="90"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="47"/>
       <c r="D122" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G122" s="8">
         <v>12</v>
       </c>
-      <c r="H122" s="91"/>
-      <c r="I122" s="91"/>
-      <c r="J122" s="91"/>
-      <c r="K122" s="91"/>
+      <c r="H122" s="43"/>
+      <c r="I122" s="43"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
     </row>
     <row r="123" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="34">
+      <c r="A123" s="37">
         <v>14</v>
       </c>
-      <c r="B123" s="35"/>
-      <c r="C123" s="36" t="s">
-        <v>213</v>
+      <c r="B123" s="40"/>
+      <c r="C123" s="41" t="s">
+        <v>207</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F123" s="9" t="s">
         <v>7</v>
@@ -7082,10 +7088,10 @@
       <c r="G123" s="9">
         <v>1220122</v>
       </c>
-      <c r="H123" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I123" s="37">
+      <c r="H123" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I123" s="42">
         <v>1220122</v>
       </c>
       <c r="J123" s="33" t="s">
@@ -7096,60 +7102,60 @@
       </c>
     </row>
     <row r="124" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="34"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="36"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="41"/>
       <c r="D124" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F124" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G124" s="21">
         <v>180000</v>
       </c>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
       <c r="J124" s="33"/>
       <c r="K124" s="33"/>
     </row>
     <row r="125" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="34"/>
-      <c r="B125" s="35"/>
-      <c r="C125" s="36"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="41"/>
       <c r="D125" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G125" s="9">
         <v>12</v>
       </c>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
       <c r="J125" s="33"/>
       <c r="K125" s="33"/>
     </row>
     <row r="126" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="34">
+      <c r="A126" s="37">
         <v>15</v>
       </c>
-      <c r="B126" s="89"/>
-      <c r="C126" s="90" t="s">
-        <v>214</v>
+      <c r="B126" s="46"/>
+      <c r="C126" s="47" t="s">
+        <v>208</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F126" s="8" t="s">
         <v>7</v>
@@ -7157,64 +7163,64 @@
       <c r="G126" s="8">
         <v>1220803</v>
       </c>
-      <c r="H126" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="I126" s="91">
+      <c r="H126" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I126" s="43">
         <v>1220803</v>
       </c>
-      <c r="J126" s="91" t="s">
+      <c r="J126" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K126" s="91">
+      <c r="K126" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="34"/>
-      <c r="B127" s="89"/>
-      <c r="C127" s="90"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="46"/>
+      <c r="C127" s="47"/>
       <c r="D127" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G127" s="8">
         <v>180000</v>
       </c>
-      <c r="H127" s="91"/>
-      <c r="I127" s="91"/>
-      <c r="J127" s="91"/>
-      <c r="K127" s="91"/>
+      <c r="H127" s="43"/>
+      <c r="I127" s="43"/>
+      <c r="J127" s="43"/>
+      <c r="K127" s="43"/>
     </row>
     <row r="128" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="34"/>
-      <c r="B128" s="89"/>
-      <c r="C128" s="90"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="46"/>
+      <c r="C128" s="47"/>
       <c r="D128" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G128" s="8">
         <v>12</v>
       </c>
-      <c r="H128" s="91"/>
-      <c r="I128" s="91"/>
-      <c r="J128" s="91"/>
-      <c r="K128" s="91"/>
+      <c r="H128" s="43"/>
+      <c r="I128" s="43"/>
+      <c r="J128" s="43"/>
+      <c r="K128" s="43"/>
     </row>
     <row r="129" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -7227,7 +7233,7 @@
     </row>
     <row r="130" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -7250,18 +7256,18 @@
       <c r="K131" s="1"/>
     </row>
     <row r="132" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="34">
+      <c r="A132" s="37">
         <v>16</v>
       </c>
-      <c r="B132" s="35"/>
-      <c r="C132" s="36" t="s">
-        <v>206</v>
+      <c r="B132" s="40"/>
+      <c r="C132" s="41" t="s">
+        <v>200</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>7</v>
@@ -7269,10 +7275,10 @@
       <c r="G132" s="9">
         <v>1032415</v>
       </c>
-      <c r="H132" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I132" s="37">
+      <c r="H132" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I132" s="42">
         <v>1032415</v>
       </c>
       <c r="J132" s="33" t="s">
@@ -7283,104 +7289,104 @@
       </c>
     </row>
     <row r="133" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="34"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="36"/>
-      <c r="D133" s="49" t="s">
-        <v>126</v>
+      <c r="A133" s="37"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="52" t="s">
+        <v>122</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G133" s="52">
+        <v>125</v>
+      </c>
+      <c r="G133" s="55">
         <v>50</v>
       </c>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
+      <c r="H133" s="42"/>
+      <c r="I133" s="42"/>
       <c r="J133" s="33"/>
       <c r="K133" s="33"/>
     </row>
     <row r="134" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="34"/>
-      <c r="B134" s="35"/>
-      <c r="C134" s="36"/>
-      <c r="D134" s="50"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="54"/>
       <c r="E134" s="33"/>
       <c r="F134" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G134" s="53"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
+        <v>123</v>
+      </c>
+      <c r="G134" s="56"/>
+      <c r="H134" s="42"/>
+      <c r="I134" s="42"/>
       <c r="J134" s="33"/>
       <c r="K134" s="33"/>
     </row>
     <row r="135" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="34"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="36"/>
-      <c r="D135" s="51"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="53"/>
       <c r="E135" s="33"/>
       <c r="F135" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G135" s="54"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
+        <v>124</v>
+      </c>
+      <c r="G135" s="57"/>
+      <c r="H135" s="42"/>
+      <c r="I135" s="42"/>
       <c r="J135" s="33"/>
       <c r="K135" s="33"/>
     </row>
     <row r="136" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="34"/>
-      <c r="B136" s="35"/>
-      <c r="C136" s="36"/>
-      <c r="D136" s="55" t="s">
-        <v>134</v>
+      <c r="A136" s="37"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="58" t="s">
+        <v>130</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G136" s="33">
         <v>20</v>
       </c>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
+      <c r="H136" s="42"/>
+      <c r="I136" s="42"/>
       <c r="J136" s="33"/>
       <c r="K136" s="33"/>
     </row>
     <row r="137" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="34"/>
-      <c r="B137" s="35"/>
-      <c r="C137" s="36"/>
-      <c r="D137" s="55"/>
+      <c r="A137" s="37"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="58"/>
       <c r="E137" s="33"/>
       <c r="F137" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G137" s="33"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="37"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
       <c r="J137" s="33"/>
       <c r="K137" s="33"/>
     </row>
     <row r="138" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="34"/>
-      <c r="B138" s="35"/>
-      <c r="C138" s="36"/>
-      <c r="D138" s="55"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="40"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="58"/>
       <c r="E138" s="33"/>
       <c r="F138" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G138" s="33"/>
-      <c r="H138" s="37"/>
-      <c r="I138" s="37"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
       <c r="J138" s="33"/>
       <c r="K138" s="33"/>
     </row>
@@ -7396,18 +7402,18 @@
       <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="34">
+      <c r="A140" s="37">
         <v>17</v>
       </c>
-      <c r="B140" s="89"/>
-      <c r="C140" s="90" t="s">
-        <v>210</v>
+      <c r="B140" s="46"/>
+      <c r="C140" s="47" t="s">
+        <v>204</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F140" s="8" t="s">
         <v>7</v>
@@ -7415,87 +7421,87 @@
       <c r="G140" s="8">
         <v>1191819</v>
       </c>
-      <c r="H140" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="I140" s="91">
+      <c r="H140" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I140" s="43">
         <v>1191819</v>
       </c>
-      <c r="J140" s="91" t="s">
+      <c r="J140" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K140" s="91">
+      <c r="K140" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="34"/>
-      <c r="B141" s="89"/>
-      <c r="C141" s="90"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="47"/>
       <c r="D141" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E141" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G141" s="8">
         <v>54000</v>
       </c>
-      <c r="H141" s="91"/>
-      <c r="I141" s="91"/>
-      <c r="J141" s="91"/>
-      <c r="K141" s="91"/>
+      <c r="H141" s="43"/>
+      <c r="I141" s="43"/>
+      <c r="J141" s="43"/>
+      <c r="K141" s="43"/>
     </row>
     <row r="142" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="34"/>
-      <c r="B142" s="89"/>
-      <c r="C142" s="90"/>
-      <c r="D142" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="E142" s="67" t="s">
+      <c r="A142" s="37"/>
+      <c r="B142" s="46"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E142" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F142" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="G142" s="67">
+      <c r="F142" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G142" s="48">
         <v>10</v>
       </c>
-      <c r="H142" s="91"/>
-      <c r="I142" s="91"/>
-      <c r="J142" s="91"/>
-      <c r="K142" s="91"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="43"/>
+      <c r="K142" s="43"/>
     </row>
     <row r="143" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="34"/>
-      <c r="B143" s="89"/>
-      <c r="C143" s="90"/>
-      <c r="D143" s="93"/>
-      <c r="E143" s="68"/>
-      <c r="F143" s="68"/>
-      <c r="G143" s="68"/>
-      <c r="H143" s="91"/>
-      <c r="I143" s="91"/>
-      <c r="J143" s="91"/>
-      <c r="K143" s="91"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="47"/>
+      <c r="D143" s="51"/>
+      <c r="E143" s="49"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="49"/>
+      <c r="H143" s="43"/>
+      <c r="I143" s="43"/>
+      <c r="J143" s="43"/>
+      <c r="K143" s="43"/>
     </row>
     <row r="144" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="34">
+      <c r="A144" s="37">
         <v>18</v>
       </c>
-      <c r="B144" s="35"/>
-      <c r="C144" s="36" t="s">
-        <v>208</v>
+      <c r="B144" s="40"/>
+      <c r="C144" s="41" t="s">
+        <v>202</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F144" s="9" t="s">
         <v>7</v>
@@ -7503,10 +7509,10 @@
       <c r="G144" s="9">
         <v>1190507</v>
       </c>
-      <c r="H144" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I144" s="37">
+      <c r="H144" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I144" s="42">
         <v>1190507</v>
       </c>
       <c r="J144" s="33" t="s">
@@ -7517,60 +7523,60 @@
       </c>
     </row>
     <row r="145" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="34"/>
-      <c r="B145" s="35"/>
-      <c r="C145" s="36"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="41"/>
       <c r="D145" s="22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E145" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G145" s="10">
         <v>54000</v>
       </c>
-      <c r="H145" s="37"/>
-      <c r="I145" s="37"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="42"/>
       <c r="J145" s="33"/>
       <c r="K145" s="33"/>
     </row>
     <row r="146" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="34"/>
-      <c r="B146" s="35"/>
-      <c r="C146" s="36"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="41"/>
       <c r="D146" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G146" s="9">
         <v>10</v>
       </c>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
+      <c r="H146" s="42"/>
+      <c r="I146" s="42"/>
       <c r="J146" s="33"/>
       <c r="K146" s="33"/>
     </row>
     <row r="147" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="34">
+      <c r="A147" s="37">
         <v>19</v>
       </c>
-      <c r="B147" s="89"/>
-      <c r="C147" s="90" t="s">
-        <v>209</v>
+      <c r="B147" s="46"/>
+      <c r="C147" s="47" t="s">
+        <v>203</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>7</v>
@@ -7578,73 +7584,73 @@
       <c r="G147" s="8">
         <v>1190601</v>
       </c>
-      <c r="H147" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="I147" s="91">
+      <c r="H147" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I147" s="43">
         <v>1190601</v>
       </c>
-      <c r="J147" s="91" t="s">
+      <c r="J147" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K147" s="91">
+      <c r="K147" s="43">
         <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="34"/>
-      <c r="B148" s="89"/>
-      <c r="C148" s="90"/>
+      <c r="A148" s="37"/>
+      <c r="B148" s="46"/>
+      <c r="C148" s="47"/>
       <c r="D148" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G148" s="8">
         <v>54000</v>
       </c>
-      <c r="H148" s="91"/>
-      <c r="I148" s="91"/>
-      <c r="J148" s="91"/>
-      <c r="K148" s="91"/>
+      <c r="H148" s="43"/>
+      <c r="I148" s="43"/>
+      <c r="J148" s="43"/>
+      <c r="K148" s="43"/>
     </row>
     <row r="149" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="34"/>
-      <c r="B149" s="89"/>
-      <c r="C149" s="90"/>
-      <c r="D149" s="92" t="s">
-        <v>143</v>
-      </c>
-      <c r="E149" s="67" t="s">
+      <c r="A149" s="37"/>
+      <c r="B149" s="46"/>
+      <c r="C149" s="47"/>
+      <c r="D149" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E149" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F149" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="G149" s="67">
+      <c r="F149" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="G149" s="48">
         <v>10</v>
       </c>
-      <c r="H149" s="91"/>
-      <c r="I149" s="91"/>
-      <c r="J149" s="91"/>
-      <c r="K149" s="91"/>
+      <c r="H149" s="43"/>
+      <c r="I149" s="43"/>
+      <c r="J149" s="43"/>
+      <c r="K149" s="43"/>
     </row>
     <row r="150" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="34"/>
-      <c r="B150" s="89"/>
-      <c r="C150" s="90"/>
-      <c r="D150" s="93"/>
-      <c r="E150" s="68"/>
-      <c r="F150" s="68"/>
-      <c r="G150" s="68"/>
-      <c r="H150" s="91"/>
-      <c r="I150" s="91"/>
-      <c r="J150" s="91"/>
-      <c r="K150" s="91"/>
+      <c r="A150" s="37"/>
+      <c r="B150" s="46"/>
+      <c r="C150" s="47"/>
+      <c r="D150" s="51"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="49"/>
+      <c r="G150" s="49"/>
+      <c r="H150" s="43"/>
+      <c r="I150" s="43"/>
+      <c r="J150" s="43"/>
+      <c r="K150" s="43"/>
     </row>
     <row r="151" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
@@ -7654,18 +7660,18 @@
       <c r="K151" s="3"/>
     </row>
     <row r="152" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="34">
+      <c r="A152" s="37">
         <v>20</v>
       </c>
-      <c r="B152" s="35"/>
-      <c r="C152" s="36" t="s">
-        <v>207</v>
+      <c r="B152" s="40"/>
+      <c r="C152" s="41" t="s">
+        <v>201</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>7</v>
@@ -7673,10 +7679,10 @@
       <c r="G152" s="9">
         <v>1190304</v>
       </c>
-      <c r="H152" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I152" s="37">
+      <c r="H152" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I152" s="42">
         <v>1190304</v>
       </c>
       <c r="J152" s="33" t="s">
@@ -7687,90 +7693,90 @@
       </c>
     </row>
     <row r="153" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="34"/>
-      <c r="B153" s="35"/>
-      <c r="C153" s="36"/>
+      <c r="A153" s="37"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="41"/>
       <c r="D153" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E153" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G153" s="9">
         <v>1000</v>
       </c>
-      <c r="H153" s="37"/>
-      <c r="I153" s="37"/>
+      <c r="H153" s="42"/>
+      <c r="I153" s="42"/>
       <c r="J153" s="33"/>
       <c r="K153" s="33"/>
     </row>
     <row r="154" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="34"/>
-      <c r="B154" s="35"/>
-      <c r="C154" s="36"/>
+      <c r="A154" s="37"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="41"/>
       <c r="D154" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E154" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G154" s="9">
         <v>1500</v>
       </c>
-      <c r="H154" s="37"/>
-      <c r="I154" s="37"/>
+      <c r="H154" s="42"/>
+      <c r="I154" s="42"/>
       <c r="J154" s="33"/>
       <c r="K154" s="33"/>
     </row>
     <row r="156" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="56"/>
-      <c r="B156" s="56" t="s">
+      <c r="A156" s="79"/>
+      <c r="B156" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C156" s="57" t="s">
+      <c r="C156" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D156" s="56" t="s">
+      <c r="D156" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E156" s="56"/>
-      <c r="F156" s="56"/>
-      <c r="G156" s="56"/>
-      <c r="H156" s="58" t="s">
+      <c r="E156" s="79"/>
+      <c r="F156" s="79"/>
+      <c r="G156" s="79"/>
+      <c r="H156" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="I156" s="59"/>
-      <c r="J156" s="59"/>
-      <c r="K156" s="60"/>
+      <c r="I156" s="82"/>
+      <c r="J156" s="82"/>
+      <c r="K156" s="83"/>
     </row>
     <row r="157" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="56"/>
-      <c r="B157" s="56"/>
-      <c r="C157" s="57"/>
-      <c r="D157" s="57" t="s">
+      <c r="A157" s="79"/>
+      <c r="B157" s="79"/>
+      <c r="C157" s="80"/>
+      <c r="D157" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E157" s="56" t="s">
+      <c r="E157" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="F157" s="56"/>
-      <c r="G157" s="56"/>
-      <c r="H157" s="61"/>
-      <c r="I157" s="62"/>
-      <c r="J157" s="62"/>
-      <c r="K157" s="63"/>
+      <c r="F157" s="79"/>
+      <c r="G157" s="79"/>
+      <c r="H157" s="84"/>
+      <c r="I157" s="85"/>
+      <c r="J157" s="85"/>
+      <c r="K157" s="86"/>
     </row>
     <row r="158" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="56"/>
-      <c r="B158" s="56"/>
-      <c r="C158" s="57"/>
-      <c r="D158" s="57"/>
+      <c r="A158" s="79"/>
+      <c r="B158" s="79"/>
+      <c r="C158" s="80"/>
+      <c r="D158" s="80"/>
       <c r="E158" s="23" t="s">
         <v>5</v>
       </c>
@@ -7778,26 +7784,26 @@
         <v>8</v>
       </c>
       <c r="G158" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H158" s="64"/>
-      <c r="I158" s="65"/>
-      <c r="J158" s="65"/>
-      <c r="K158" s="66"/>
+        <v>78</v>
+      </c>
+      <c r="H158" s="87"/>
+      <c r="I158" s="88"/>
+      <c r="J158" s="88"/>
+      <c r="K158" s="89"/>
     </row>
     <row r="159" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="34">
+      <c r="A159" s="37">
         <v>1</v>
       </c>
-      <c r="B159" s="41"/>
-      <c r="C159" s="42" t="s">
-        <v>219</v>
+      <c r="B159" s="90"/>
+      <c r="C159" s="91" t="s">
+        <v>213</v>
       </c>
       <c r="D159" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F159" s="26" t="s">
         <v>7</v>
@@ -7805,46 +7811,46 @@
       <c r="G159" s="26">
         <v>1031115</v>
       </c>
-      <c r="H159" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I159" s="44">
+      <c r="H159" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I159" s="92">
         <v>1031115</v>
       </c>
-      <c r="J159" s="44" t="s">
+      <c r="J159" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="K159" s="44">
+      <c r="K159" s="92">
         <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="34"/>
-      <c r="B160" s="41"/>
-      <c r="C160" s="42"/>
+      <c r="A160" s="37"/>
+      <c r="B160" s="90"/>
+      <c r="C160" s="91"/>
       <c r="D160" s="32" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E160" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F160" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G160" s="26">
         <v>360000</v>
       </c>
-      <c r="H160" s="45"/>
-      <c r="I160" s="45"/>
-      <c r="J160" s="45"/>
-      <c r="K160" s="45"/>
+      <c r="H160" s="93"/>
+      <c r="I160" s="93"/>
+      <c r="J160" s="93"/>
+      <c r="K160" s="93"/>
     </row>
     <row r="161" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="34"/>
-      <c r="B161" s="41"/>
-      <c r="C161" s="42"/>
+      <c r="A161" s="37"/>
+      <c r="B161" s="90"/>
+      <c r="C161" s="91"/>
       <c r="D161" s="32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E161" s="26" t="s">
         <v>13</v>
@@ -7855,24 +7861,24 @@
       <c r="G161" s="26">
         <v>40</v>
       </c>
-      <c r="H161" s="46"/>
-      <c r="I161" s="46"/>
-      <c r="J161" s="46"/>
-      <c r="K161" s="46"/>
+      <c r="H161" s="94"/>
+      <c r="I161" s="94"/>
+      <c r="J161" s="94"/>
+      <c r="K161" s="94"/>
     </row>
     <row r="162" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="34">
+      <c r="A162" s="37">
         <v>2</v>
       </c>
-      <c r="B162" s="35"/>
-      <c r="C162" s="36" t="s">
-        <v>217</v>
+      <c r="B162" s="40"/>
+      <c r="C162" s="41" t="s">
+        <v>211</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F162" s="25" t="s">
         <v>7</v>
@@ -7880,74 +7886,74 @@
       <c r="G162" s="25">
         <v>1031109</v>
       </c>
-      <c r="H162" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="I162" s="52">
+      <c r="H162" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I162" s="55">
         <v>1031109</v>
       </c>
-      <c r="J162" s="52" t="s">
+      <c r="J162" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K162" s="52">
+      <c r="K162" s="55">
         <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="34"/>
-      <c r="B163" s="35"/>
-      <c r="C163" s="36"/>
+      <c r="A163" s="37"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="41"/>
       <c r="D163" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E163" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G163" s="25">
         <v>360000</v>
       </c>
-      <c r="H163" s="53"/>
-      <c r="I163" s="53"/>
-      <c r="J163" s="53"/>
-      <c r="K163" s="53"/>
+      <c r="H163" s="56"/>
+      <c r="I163" s="56"/>
+      <c r="J163" s="56"/>
+      <c r="K163" s="56"/>
     </row>
     <row r="164" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="34"/>
-      <c r="B164" s="35"/>
-      <c r="C164" s="36"/>
+      <c r="A164" s="37"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="41"/>
       <c r="D164" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E164" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F164" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G164" s="25">
         <v>35</v>
       </c>
-      <c r="H164" s="54"/>
-      <c r="I164" s="54"/>
-      <c r="J164" s="54"/>
-      <c r="K164" s="54"/>
+      <c r="H164" s="57"/>
+      <c r="I164" s="57"/>
+      <c r="J164" s="57"/>
+      <c r="K164" s="57"/>
     </row>
     <row r="165" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="34">
+      <c r="A165" s="37">
         <v>3</v>
       </c>
-      <c r="B165" s="41"/>
-      <c r="C165" s="42" t="s">
-        <v>220</v>
+      <c r="B165" s="90"/>
+      <c r="C165" s="91" t="s">
+        <v>214</v>
       </c>
       <c r="D165" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E165" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F165" s="26" t="s">
         <v>7</v>
@@ -7955,74 +7961,74 @@
       <c r="G165" s="26">
         <v>1031119</v>
       </c>
-      <c r="H165" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I165" s="44">
+      <c r="H165" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I165" s="92">
         <v>1031119</v>
       </c>
-      <c r="J165" s="44" t="s">
+      <c r="J165" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="K165" s="44">
+      <c r="K165" s="92">
         <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="34"/>
-      <c r="B166" s="41"/>
-      <c r="C166" s="42"/>
+      <c r="A166" s="37"/>
+      <c r="B166" s="90"/>
+      <c r="C166" s="91"/>
       <c r="D166" s="32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E166" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F166" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G166" s="26">
         <v>360000</v>
       </c>
-      <c r="H166" s="45"/>
-      <c r="I166" s="45"/>
-      <c r="J166" s="45"/>
-      <c r="K166" s="45"/>
+      <c r="H166" s="93"/>
+      <c r="I166" s="93"/>
+      <c r="J166" s="93"/>
+      <c r="K166" s="93"/>
     </row>
     <row r="167" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="34"/>
-      <c r="B167" s="41"/>
-      <c r="C167" s="42"/>
+      <c r="A167" s="37"/>
+      <c r="B167" s="90"/>
+      <c r="C167" s="91"/>
       <c r="D167" s="32" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E167" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F167" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G167" s="26">
         <v>40</v>
       </c>
-      <c r="H167" s="46"/>
-      <c r="I167" s="46"/>
-      <c r="J167" s="46"/>
-      <c r="K167" s="46"/>
+      <c r="H167" s="94"/>
+      <c r="I167" s="94"/>
+      <c r="J167" s="94"/>
+      <c r="K167" s="94"/>
     </row>
     <row r="168" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="34">
+      <c r="A168" s="37">
         <v>4</v>
       </c>
-      <c r="B168" s="35"/>
-      <c r="C168" s="36" t="s">
-        <v>222</v>
+      <c r="B168" s="40"/>
+      <c r="C168" s="41" t="s">
+        <v>216</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F168" s="25" t="s">
         <v>7</v>
@@ -8030,74 +8036,74 @@
       <c r="G168" s="25">
         <v>1031121</v>
       </c>
-      <c r="H168" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="I168" s="52">
+      <c r="H168" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I168" s="55">
         <v>1031121</v>
       </c>
-      <c r="J168" s="52" t="s">
+      <c r="J168" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K168" s="52">
+      <c r="K168" s="55">
         <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="34"/>
-      <c r="B169" s="35"/>
-      <c r="C169" s="36"/>
+      <c r="A169" s="37"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="41"/>
       <c r="D169" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E169" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F169" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G169" s="25">
         <v>360000</v>
       </c>
-      <c r="H169" s="53"/>
-      <c r="I169" s="53"/>
-      <c r="J169" s="53"/>
-      <c r="K169" s="53"/>
+      <c r="H169" s="56"/>
+      <c r="I169" s="56"/>
+      <c r="J169" s="56"/>
+      <c r="K169" s="56"/>
     </row>
     <row r="170" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="34"/>
-      <c r="B170" s="35"/>
-      <c r="C170" s="36"/>
+      <c r="A170" s="37"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="41"/>
       <c r="D170" s="18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E170" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F170" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G170" s="25">
         <v>40</v>
       </c>
-      <c r="H170" s="54"/>
-      <c r="I170" s="54"/>
-      <c r="J170" s="54"/>
-      <c r="K170" s="54"/>
+      <c r="H170" s="57"/>
+      <c r="I170" s="57"/>
+      <c r="J170" s="57"/>
+      <c r="K170" s="57"/>
     </row>
     <row r="171" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="34">
+      <c r="A171" s="37">
         <v>5</v>
       </c>
-      <c r="B171" s="41"/>
-      <c r="C171" s="42" t="s">
-        <v>216</v>
+      <c r="B171" s="90"/>
+      <c r="C171" s="91" t="s">
+        <v>210</v>
       </c>
       <c r="D171" s="32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F171" s="26" t="s">
         <v>7</v>
@@ -8105,74 +8111,74 @@
       <c r="G171" s="26">
         <v>1031105</v>
       </c>
-      <c r="H171" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I171" s="44">
+      <c r="H171" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I171" s="92">
         <v>1031105</v>
       </c>
-      <c r="J171" s="44" t="s">
+      <c r="J171" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="K171" s="44">
+      <c r="K171" s="92">
         <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="34"/>
-      <c r="B172" s="41"/>
-      <c r="C172" s="42"/>
+      <c r="A172" s="37"/>
+      <c r="B172" s="90"/>
+      <c r="C172" s="91"/>
       <c r="D172" s="32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E172" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F172" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G172" s="26">
         <v>360000</v>
       </c>
-      <c r="H172" s="45"/>
-      <c r="I172" s="45"/>
-      <c r="J172" s="45"/>
-      <c r="K172" s="45"/>
+      <c r="H172" s="93"/>
+      <c r="I172" s="93"/>
+      <c r="J172" s="93"/>
+      <c r="K172" s="93"/>
     </row>
     <row r="173" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="34"/>
-      <c r="B173" s="41"/>
-      <c r="C173" s="42"/>
+      <c r="A173" s="37"/>
+      <c r="B173" s="90"/>
+      <c r="C173" s="91"/>
       <c r="D173" s="32" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E173" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F173" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G173" s="26">
         <v>20</v>
       </c>
-      <c r="H173" s="46"/>
-      <c r="I173" s="46"/>
-      <c r="J173" s="46"/>
-      <c r="K173" s="46"/>
+      <c r="H173" s="94"/>
+      <c r="I173" s="94"/>
+      <c r="J173" s="94"/>
+      <c r="K173" s="94"/>
     </row>
     <row r="174" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="34">
+      <c r="A174" s="37">
         <v>6</v>
       </c>
-      <c r="B174" s="35"/>
-      <c r="C174" s="36" t="s">
-        <v>218</v>
+      <c r="B174" s="40"/>
+      <c r="C174" s="41" t="s">
+        <v>212</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F174" s="25" t="s">
         <v>7</v>
@@ -8180,74 +8186,74 @@
       <c r="G174" s="25">
         <v>1031113</v>
       </c>
-      <c r="H174" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="I174" s="52">
+      <c r="H174" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I174" s="55">
         <v>1031113</v>
       </c>
-      <c r="J174" s="52" t="s">
+      <c r="J174" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K174" s="52">
+      <c r="K174" s="55">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="34"/>
-      <c r="B175" s="35"/>
-      <c r="C175" s="36"/>
+      <c r="A175" s="37"/>
+      <c r="B175" s="40"/>
+      <c r="C175" s="41"/>
       <c r="D175" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E175" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F175" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G175" s="25">
         <v>360000</v>
       </c>
-      <c r="H175" s="53"/>
-      <c r="I175" s="53"/>
-      <c r="J175" s="53"/>
-      <c r="K175" s="53"/>
+      <c r="H175" s="56"/>
+      <c r="I175" s="56"/>
+      <c r="J175" s="56"/>
+      <c r="K175" s="56"/>
     </row>
     <row r="176" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="34"/>
-      <c r="B176" s="35"/>
-      <c r="C176" s="36"/>
+      <c r="A176" s="37"/>
+      <c r="B176" s="40"/>
+      <c r="C176" s="41"/>
       <c r="D176" s="18" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="E176" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F176" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G176" s="25">
         <v>40</v>
       </c>
-      <c r="H176" s="54"/>
-      <c r="I176" s="54"/>
-      <c r="J176" s="54"/>
-      <c r="K176" s="54"/>
+      <c r="H176" s="57"/>
+      <c r="I176" s="57"/>
+      <c r="J176" s="57"/>
+      <c r="K176" s="57"/>
     </row>
     <row r="177" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="34">
-        <v>7</v>
-      </c>
-      <c r="B177" s="41"/>
-      <c r="C177" s="42" t="s">
-        <v>221</v>
+      <c r="A177" s="37">
+        <v>7</v>
+      </c>
+      <c r="B177" s="90"/>
+      <c r="C177" s="91" t="s">
+        <v>215</v>
       </c>
       <c r="D177" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F177" s="26" t="s">
         <v>7</v>
@@ -8255,74 +8261,74 @@
       <c r="G177" s="26">
         <v>1031120</v>
       </c>
-      <c r="H177" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I177" s="44">
+      <c r="H177" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I177" s="92">
         <v>1031120</v>
       </c>
-      <c r="J177" s="44" t="s">
+      <c r="J177" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="K177" s="44">
+      <c r="K177" s="92">
         <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="34"/>
-      <c r="B178" s="41"/>
-      <c r="C178" s="42"/>
+      <c r="A178" s="37"/>
+      <c r="B178" s="90"/>
+      <c r="C178" s="91"/>
       <c r="D178" s="32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E178" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F178" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G178" s="26">
         <v>360000</v>
       </c>
-      <c r="H178" s="45"/>
-      <c r="I178" s="45"/>
-      <c r="J178" s="45"/>
-      <c r="K178" s="45"/>
+      <c r="H178" s="93"/>
+      <c r="I178" s="93"/>
+      <c r="J178" s="93"/>
+      <c r="K178" s="93"/>
     </row>
     <row r="179" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="34"/>
-      <c r="B179" s="41"/>
-      <c r="C179" s="42"/>
+      <c r="A179" s="37"/>
+      <c r="B179" s="90"/>
+      <c r="C179" s="91"/>
       <c r="D179" s="32" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E179" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F179" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G179" s="26">
         <v>40</v>
       </c>
-      <c r="H179" s="46"/>
-      <c r="I179" s="46"/>
-      <c r="J179" s="46"/>
-      <c r="K179" s="46"/>
+      <c r="H179" s="94"/>
+      <c r="I179" s="94"/>
+      <c r="J179" s="94"/>
+      <c r="K179" s="94"/>
     </row>
     <row r="180" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="34">
+      <c r="A180" s="37">
         <v>8</v>
       </c>
-      <c r="B180" s="35"/>
-      <c r="C180" s="36" t="s">
-        <v>223</v>
+      <c r="B180" s="40"/>
+      <c r="C180" s="41" t="s">
+        <v>217</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F180" s="25" t="s">
         <v>7</v>
@@ -8330,74 +8336,74 @@
       <c r="G180" s="25">
         <v>1031619</v>
       </c>
-      <c r="H180" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="I180" s="52">
+      <c r="H180" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I180" s="55">
         <v>1031619</v>
       </c>
-      <c r="J180" s="52" t="s">
+      <c r="J180" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K180" s="52">
+      <c r="K180" s="55">
         <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="34"/>
-      <c r="B181" s="35"/>
-      <c r="C181" s="36"/>
+      <c r="A181" s="37"/>
+      <c r="B181" s="40"/>
+      <c r="C181" s="41"/>
       <c r="D181" s="18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F181" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G181" s="25">
         <v>500</v>
       </c>
-      <c r="H181" s="53"/>
-      <c r="I181" s="53"/>
-      <c r="J181" s="53"/>
-      <c r="K181" s="53"/>
+      <c r="H181" s="56"/>
+      <c r="I181" s="56"/>
+      <c r="J181" s="56"/>
+      <c r="K181" s="56"/>
     </row>
     <row r="182" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="34"/>
-      <c r="B182" s="35"/>
-      <c r="C182" s="36"/>
+      <c r="A182" s="37"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="41"/>
       <c r="D182" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F182" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G182" s="25">
         <v>18</v>
       </c>
-      <c r="H182" s="54"/>
-      <c r="I182" s="54"/>
-      <c r="J182" s="54"/>
-      <c r="K182" s="54"/>
+      <c r="H182" s="57"/>
+      <c r="I182" s="57"/>
+      <c r="J182" s="57"/>
+      <c r="K182" s="57"/>
     </row>
     <row r="183" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="34">
+      <c r="A183" s="37">
         <v>9</v>
       </c>
-      <c r="B183" s="41"/>
-      <c r="C183" s="42" t="s">
-        <v>224</v>
+      <c r="B183" s="90"/>
+      <c r="C183" s="91" t="s">
+        <v>218</v>
       </c>
       <c r="D183" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F183" s="26" t="s">
         <v>7</v>
@@ -8405,52 +8411,52 @@
       <c r="G183" s="26">
         <v>1031406</v>
       </c>
-      <c r="H183" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I183" s="44">
+      <c r="H183" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I183" s="92">
         <v>1031406</v>
       </c>
-      <c r="J183" s="44" t="s">
+      <c r="J183" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="K183" s="44">
+      <c r="K183" s="92">
         <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="34"/>
-      <c r="B184" s="41"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="E184" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F184" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="G184" s="44">
+      <c r="A184" s="37"/>
+      <c r="B184" s="90"/>
+      <c r="C184" s="91"/>
+      <c r="D184" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="E184" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F184" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="G184" s="92">
         <v>100</v>
       </c>
-      <c r="H184" s="45"/>
-      <c r="I184" s="45"/>
-      <c r="J184" s="45"/>
-      <c r="K184" s="45"/>
+      <c r="H184" s="93"/>
+      <c r="I184" s="93"/>
+      <c r="J184" s="93"/>
+      <c r="K184" s="93"/>
     </row>
     <row r="185" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="34"/>
-      <c r="B185" s="41"/>
-      <c r="C185" s="42"/>
-      <c r="D185" s="48"/>
-      <c r="E185" s="46"/>
-      <c r="F185" s="46"/>
-      <c r="G185" s="46"/>
-      <c r="H185" s="46"/>
-      <c r="I185" s="46"/>
-      <c r="J185" s="46"/>
-      <c r="K185" s="46"/>
+      <c r="A185" s="37"/>
+      <c r="B185" s="90"/>
+      <c r="C185" s="91"/>
+      <c r="D185" s="96"/>
+      <c r="E185" s="94"/>
+      <c r="F185" s="94"/>
+      <c r="G185" s="94"/>
+      <c r="H185" s="94"/>
+      <c r="I185" s="94"/>
+      <c r="J185" s="94"/>
+      <c r="K185" s="94"/>
     </row>
     <row r="186" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
@@ -8461,18 +8467,18 @@
       <c r="I186" s="1"/>
     </row>
     <row r="187" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="34">
+      <c r="A187" s="37">
         <v>10</v>
       </c>
-      <c r="B187" s="35"/>
-      <c r="C187" s="36" t="s">
-        <v>225</v>
+      <c r="B187" s="40"/>
+      <c r="C187" s="41" t="s">
+        <v>219</v>
       </c>
       <c r="D187" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E187" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F187" s="27" t="s">
         <v>7</v>
@@ -8480,66 +8486,66 @@
       <c r="G187" s="27">
         <v>1031923</v>
       </c>
-      <c r="H187" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I187" s="38">
+      <c r="H187" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I187" s="97">
         <v>1031923</v>
       </c>
-      <c r="J187" s="52" t="s">
+      <c r="J187" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K187" s="52">
+      <c r="K187" s="55">
         <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="34"/>
-      <c r="B188" s="35"/>
-      <c r="C188" s="36"/>
-      <c r="D188" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="E188" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F188" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G188" s="52">
+      <c r="A188" s="37"/>
+      <c r="B188" s="40"/>
+      <c r="C188" s="41"/>
+      <c r="D188" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="E188" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F188" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188" s="55">
         <v>20</v>
       </c>
-      <c r="H188" s="39"/>
-      <c r="I188" s="39"/>
-      <c r="J188" s="53"/>
-      <c r="K188" s="53"/>
+      <c r="H188" s="98"/>
+      <c r="I188" s="98"/>
+      <c r="J188" s="56"/>
+      <c r="K188" s="56"/>
     </row>
     <row r="189" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="34"/>
-      <c r="B189" s="35"/>
-      <c r="C189" s="36"/>
-      <c r="D189" s="51"/>
-      <c r="E189" s="54"/>
-      <c r="F189" s="54"/>
-      <c r="G189" s="54"/>
-      <c r="H189" s="40"/>
-      <c r="I189" s="40"/>
-      <c r="J189" s="54"/>
-      <c r="K189" s="54"/>
-    </row>
-    <row r="190" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="34">
+      <c r="A189" s="37"/>
+      <c r="B189" s="40"/>
+      <c r="C189" s="41"/>
+      <c r="D189" s="53"/>
+      <c r="E189" s="57"/>
+      <c r="F189" s="57"/>
+      <c r="G189" s="57"/>
+      <c r="H189" s="99"/>
+      <c r="I189" s="99"/>
+      <c r="J189" s="57"/>
+      <c r="K189" s="57"/>
+    </row>
+    <row r="190" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="37">
         <v>11</v>
       </c>
-      <c r="B190" s="41"/>
-      <c r="C190" s="42" t="s">
-        <v>231</v>
+      <c r="B190" s="90"/>
+      <c r="C190" s="91" t="s">
+        <v>225</v>
       </c>
       <c r="D190" s="30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F190" s="31" t="s">
         <v>7</v>
@@ -8547,16 +8553,16 @@
       <c r="G190" s="31">
         <v>1220104</v>
       </c>
-      <c r="H190" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I190" s="44">
+      <c r="H190" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I190" s="92">
         <v>1220104</v>
       </c>
-      <c r="J190" s="44" t="s">
+      <c r="J190" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="K190" s="44">
+      <c r="K190" s="92">
         <v>3</v>
       </c>
       <c r="M190"/>
@@ -8564,61 +8570,61 @@
       <c r="O190"/>
       <c r="P190"/>
     </row>
-    <row r="191" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="34"/>
-      <c r="B191" s="41"/>
-      <c r="C191" s="42"/>
-      <c r="D191" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="E191" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F191" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G191" s="44">
+    <row r="191" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="37"/>
+      <c r="B191" s="90"/>
+      <c r="C191" s="91"/>
+      <c r="D191" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="E191" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="F191" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G191" s="92">
         <v>20</v>
       </c>
-      <c r="H191" s="45"/>
-      <c r="I191" s="45"/>
-      <c r="J191" s="45"/>
-      <c r="K191" s="45"/>
+      <c r="H191" s="93"/>
+      <c r="I191" s="93"/>
+      <c r="J191" s="93"/>
+      <c r="K191" s="93"/>
       <c r="M191"/>
       <c r="N191"/>
       <c r="O191"/>
       <c r="P191"/>
     </row>
-    <row r="192" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="34"/>
-      <c r="B192" s="41"/>
-      <c r="C192" s="42"/>
-      <c r="D192" s="48"/>
-      <c r="E192" s="46"/>
-      <c r="F192" s="46"/>
-      <c r="G192" s="46"/>
-      <c r="H192" s="46"/>
-      <c r="I192" s="46"/>
-      <c r="J192" s="46"/>
-      <c r="K192" s="46"/>
+    <row r="192" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="37"/>
+      <c r="B192" s="90"/>
+      <c r="C192" s="91"/>
+      <c r="D192" s="96"/>
+      <c r="E192" s="94"/>
+      <c r="F192" s="94"/>
+      <c r="G192" s="94"/>
+      <c r="H192" s="94"/>
+      <c r="I192" s="94"/>
+      <c r="J192" s="94"/>
+      <c r="K192" s="94"/>
       <c r="M192"/>
       <c r="N192"/>
       <c r="O192"/>
       <c r="P192"/>
     </row>
-    <row r="193" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="34">
+    <row r="193" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="37">
         <v>12</v>
       </c>
-      <c r="B193" s="35"/>
-      <c r="C193" s="36" t="s">
-        <v>235</v>
+      <c r="B193" s="40"/>
+      <c r="C193" s="41" t="s">
+        <v>229</v>
       </c>
       <c r="D193" s="28" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E193" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F193" s="27" t="s">
         <v>7</v>
@@ -8626,16 +8632,16 @@
       <c r="G193" s="27">
         <v>1222016</v>
       </c>
-      <c r="H193" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I193" s="38">
+      <c r="H193" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I193" s="97">
         <v>1222016</v>
       </c>
-      <c r="J193" s="52" t="s">
+      <c r="J193" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K193" s="52">
+      <c r="K193" s="55">
         <v>3</v>
       </c>
       <c r="M193"/>
@@ -8643,94 +8649,94 @@
       <c r="O193"/>
       <c r="P193"/>
     </row>
-    <row r="194" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="34"/>
-      <c r="B194" s="35"/>
-      <c r="C194" s="36"/>
+    <row r="194" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="37"/>
+      <c r="B194" s="40"/>
+      <c r="C194" s="41"/>
       <c r="D194" s="28" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E194" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G194" s="27">
         <v>270000</v>
       </c>
-      <c r="H194" s="39"/>
-      <c r="I194" s="39"/>
-      <c r="J194" s="53"/>
-      <c r="K194" s="53"/>
+      <c r="H194" s="98"/>
+      <c r="I194" s="98"/>
+      <c r="J194" s="56"/>
+      <c r="K194" s="56"/>
       <c r="M194"/>
       <c r="N194"/>
       <c r="O194"/>
       <c r="P194"/>
     </row>
-    <row r="195" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="34"/>
-      <c r="B195" s="35"/>
-      <c r="C195" s="36"/>
+    <row r="195" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="37"/>
+      <c r="B195" s="40"/>
+      <c r="C195" s="41"/>
       <c r="D195" s="29" t="s">
-        <v>170</v>
+        <v>237</v>
       </c>
       <c r="E195" s="27" t="s">
         <v>6</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G195" s="27">
         <v>2000</v>
       </c>
-      <c r="H195" s="39"/>
-      <c r="I195" s="39"/>
-      <c r="J195" s="53"/>
-      <c r="K195" s="53"/>
+      <c r="H195" s="98"/>
+      <c r="I195" s="98"/>
+      <c r="J195" s="56"/>
+      <c r="K195" s="56"/>
       <c r="M195"/>
       <c r="N195"/>
       <c r="O195"/>
       <c r="P195"/>
     </row>
-    <row r="196" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="34"/>
-      <c r="B196" s="35"/>
-      <c r="C196" s="36"/>
+    <row r="196" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="37"/>
+      <c r="B196" s="40"/>
+      <c r="C196" s="41"/>
       <c r="D196" s="28" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E196" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G196" s="27">
         <v>11</v>
       </c>
-      <c r="H196" s="40"/>
-      <c r="I196" s="40"/>
-      <c r="J196" s="54"/>
-      <c r="K196" s="54"/>
+      <c r="H196" s="99"/>
+      <c r="I196" s="99"/>
+      <c r="J196" s="57"/>
+      <c r="K196" s="57"/>
       <c r="M196"/>
       <c r="N196"/>
       <c r="O196"/>
       <c r="P196"/>
     </row>
-    <row r="197" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="34">
+    <row r="197" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="37">
         <v>13</v>
       </c>
-      <c r="B197" s="41"/>
-      <c r="C197" s="42" t="s">
-        <v>232</v>
+      <c r="B197" s="90"/>
+      <c r="C197" s="91" t="s">
+        <v>226</v>
       </c>
       <c r="D197" s="30" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E197" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F197" s="31" t="s">
         <v>7</v>
@@ -8738,16 +8744,16 @@
       <c r="G197" s="31">
         <v>1220118</v>
       </c>
-      <c r="H197" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I197" s="44">
+      <c r="H197" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I197" s="92">
         <v>1220118</v>
       </c>
-      <c r="J197" s="44" t="s">
+      <c r="J197" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="K197" s="44">
+      <c r="K197" s="92">
         <v>3</v>
       </c>
       <c r="M197"/>
@@ -8755,86 +8761,86 @@
       <c r="O197"/>
       <c r="P197"/>
     </row>
-    <row r="198" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="34"/>
-      <c r="B198" s="41"/>
-      <c r="C198" s="42"/>
-      <c r="D198" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="E198" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F198" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G198" s="44">
+    <row r="198" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="37"/>
+      <c r="B198" s="90"/>
+      <c r="C198" s="91"/>
+      <c r="D198" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="E198" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="F198" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G198" s="92">
         <v>1440000</v>
       </c>
-      <c r="H198" s="45"/>
-      <c r="I198" s="45"/>
-      <c r="J198" s="45"/>
-      <c r="K198" s="45"/>
+      <c r="H198" s="93"/>
+      <c r="I198" s="93"/>
+      <c r="J198" s="93"/>
+      <c r="K198" s="93"/>
       <c r="M198"/>
       <c r="N198"/>
       <c r="O198"/>
       <c r="P198"/>
     </row>
-    <row r="199" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="34"/>
-      <c r="B199" s="41"/>
-      <c r="C199" s="42"/>
-      <c r="D199" s="48"/>
-      <c r="E199" s="46"/>
-      <c r="F199" s="46"/>
-      <c r="G199" s="46"/>
-      <c r="H199" s="45"/>
-      <c r="I199" s="45"/>
-      <c r="J199" s="45"/>
-      <c r="K199" s="45"/>
+    <row r="199" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="37"/>
+      <c r="B199" s="90"/>
+      <c r="C199" s="91"/>
+      <c r="D199" s="96"/>
+      <c r="E199" s="94"/>
+      <c r="F199" s="94"/>
+      <c r="G199" s="94"/>
+      <c r="H199" s="93"/>
+      <c r="I199" s="93"/>
+      <c r="J199" s="93"/>
+      <c r="K199" s="93"/>
       <c r="M199"/>
       <c r="N199"/>
       <c r="O199"/>
       <c r="P199"/>
     </row>
-    <row r="200" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="34"/>
-      <c r="B200" s="41"/>
-      <c r="C200" s="42"/>
+    <row r="200" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="37"/>
+      <c r="B200" s="90"/>
+      <c r="C200" s="91"/>
       <c r="D200" s="30" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E200" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F200" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G200" s="31">
         <v>24</v>
       </c>
-      <c r="H200" s="46"/>
-      <c r="I200" s="46"/>
-      <c r="J200" s="46"/>
-      <c r="K200" s="46"/>
+      <c r="H200" s="94"/>
+      <c r="I200" s="94"/>
+      <c r="J200" s="94"/>
+      <c r="K200" s="94"/>
       <c r="M200"/>
       <c r="N200"/>
       <c r="O200"/>
       <c r="P200"/>
     </row>
-    <row r="201" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="34">
+    <row r="201" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="37">
         <v>14</v>
       </c>
-      <c r="B201" s="35"/>
-      <c r="C201" s="36" t="s">
-        <v>233</v>
+      <c r="B201" s="40"/>
+      <c r="C201" s="41" t="s">
+        <v>227</v>
       </c>
       <c r="D201" s="28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E201" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F201" s="27" t="s">
         <v>7</v>
@@ -8842,16 +8848,16 @@
       <c r="G201" s="27">
         <v>1220122</v>
       </c>
-      <c r="H201" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I201" s="38">
+      <c r="H201" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I201" s="97">
         <v>1220122</v>
       </c>
-      <c r="J201" s="52" t="s">
+      <c r="J201" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K201" s="52">
+      <c r="K201" s="55">
         <v>3</v>
       </c>
       <c r="M201"/>
@@ -8859,69 +8865,69 @@
       <c r="O201"/>
       <c r="P201"/>
     </row>
-    <row r="202" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="34"/>
-      <c r="B202" s="35"/>
-      <c r="C202" s="36"/>
+    <row r="202" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="37"/>
+      <c r="B202" s="40"/>
+      <c r="C202" s="41"/>
       <c r="D202" s="28" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E202" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G202" s="27">
         <v>540000</v>
       </c>
-      <c r="H202" s="39"/>
-      <c r="I202" s="39"/>
-      <c r="J202" s="53"/>
-      <c r="K202" s="53"/>
+      <c r="H202" s="98"/>
+      <c r="I202" s="98"/>
+      <c r="J202" s="56"/>
+      <c r="K202" s="56"/>
       <c r="M202"/>
       <c r="N202"/>
       <c r="O202"/>
       <c r="P202"/>
     </row>
-    <row r="203" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="34"/>
-      <c r="B203" s="35"/>
-      <c r="C203" s="36"/>
+    <row r="203" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="37"/>
+      <c r="B203" s="40"/>
+      <c r="C203" s="41"/>
       <c r="D203" s="28" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E203" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G203" s="27">
         <v>24</v>
       </c>
-      <c r="H203" s="40"/>
-      <c r="I203" s="40"/>
-      <c r="J203" s="54"/>
-      <c r="K203" s="54"/>
+      <c r="H203" s="99"/>
+      <c r="I203" s="99"/>
+      <c r="J203" s="57"/>
+      <c r="K203" s="57"/>
       <c r="M203"/>
       <c r="N203"/>
       <c r="O203"/>
       <c r="P203"/>
     </row>
-    <row r="204" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="34">
+    <row r="204" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="37">
         <v>15</v>
       </c>
-      <c r="B204" s="41"/>
-      <c r="C204" s="42" t="s">
-        <v>234</v>
+      <c r="B204" s="90"/>
+      <c r="C204" s="91" t="s">
+        <v>228</v>
       </c>
       <c r="D204" s="30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E204" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F204" s="31" t="s">
         <v>7</v>
@@ -8929,16 +8935,16 @@
       <c r="G204" s="31">
         <v>1220803</v>
       </c>
-      <c r="H204" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I204" s="44">
+      <c r="H204" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="I204" s="92">
         <v>1220803</v>
       </c>
-      <c r="J204" s="44" t="s">
+      <c r="J204" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="K204" s="44">
+      <c r="K204" s="92">
         <v>3</v>
       </c>
       <c r="M204"/>
@@ -8946,57 +8952,57 @@
       <c r="O204"/>
       <c r="P204"/>
     </row>
-    <row r="205" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="34"/>
-      <c r="B205" s="41"/>
-      <c r="C205" s="42"/>
+    <row r="205" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="37"/>
+      <c r="B205" s="90"/>
+      <c r="C205" s="91"/>
       <c r="D205" s="30" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E205" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F205" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G205" s="31">
         <v>540000</v>
       </c>
-      <c r="H205" s="45"/>
-      <c r="I205" s="45"/>
-      <c r="J205" s="45"/>
-      <c r="K205" s="45"/>
+      <c r="H205" s="93"/>
+      <c r="I205" s="93"/>
+      <c r="J205" s="93"/>
+      <c r="K205" s="93"/>
       <c r="M205"/>
       <c r="N205"/>
       <c r="O205"/>
       <c r="P205"/>
     </row>
-    <row r="206" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="34"/>
-      <c r="B206" s="41"/>
-      <c r="C206" s="42"/>
+    <row r="206" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="37"/>
+      <c r="B206" s="90"/>
+      <c r="C206" s="91"/>
       <c r="D206" s="30" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E206" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F206" s="31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G206" s="31">
         <v>24</v>
       </c>
-      <c r="H206" s="46"/>
-      <c r="I206" s="46"/>
-      <c r="J206" s="46"/>
-      <c r="K206" s="46"/>
+      <c r="H206" s="94"/>
+      <c r="I206" s="94"/>
+      <c r="J206" s="94"/>
+      <c r="K206" s="94"/>
       <c r="M206"/>
       <c r="N206"/>
       <c r="O206"/>
       <c r="P206"/>
     </row>
-    <row r="207" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -9010,19 +9016,19 @@
       <c r="O207"/>
       <c r="P207"/>
     </row>
-    <row r="208" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="34">
+    <row r="208" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="37">
         <v>16</v>
       </c>
-      <c r="B208" s="35"/>
-      <c r="C208" s="36" t="s">
-        <v>226</v>
+      <c r="B208" s="40"/>
+      <c r="C208" s="41" t="s">
+        <v>220</v>
       </c>
       <c r="D208" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F208" s="27" t="s">
         <v>7</v>
@@ -9030,10 +9036,10 @@
       <c r="G208" s="27">
         <v>1032415</v>
       </c>
-      <c r="H208" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I208" s="37">
+      <c r="H208" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I208" s="42">
         <v>1032415</v>
       </c>
       <c r="J208" s="33" t="s">
@@ -9047,24 +9053,24 @@
       <c r="O208"/>
       <c r="P208"/>
     </row>
-    <row r="209" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="34"/>
-      <c r="B209" s="35"/>
-      <c r="C209" s="36"/>
-      <c r="D209" s="49" t="s">
-        <v>165</v>
+    <row r="209" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="37"/>
+      <c r="B209" s="40"/>
+      <c r="C209" s="41"/>
+      <c r="D209" s="52" t="s">
+        <v>160</v>
       </c>
       <c r="E209" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G209" s="52">
+        <v>125</v>
+      </c>
+      <c r="G209" s="55">
         <v>300</v>
       </c>
-      <c r="H209" s="37"/>
-      <c r="I209" s="37"/>
+      <c r="H209" s="42"/>
+      <c r="I209" s="42"/>
       <c r="J209" s="33"/>
       <c r="K209" s="33"/>
       <c r="M209"/>
@@ -9072,18 +9078,18 @@
       <c r="O209"/>
       <c r="P209"/>
     </row>
-    <row r="210" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="34"/>
-      <c r="B210" s="35"/>
-      <c r="C210" s="36"/>
-      <c r="D210" s="50"/>
+    <row r="210" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="37"/>
+      <c r="B210" s="40"/>
+      <c r="C210" s="41"/>
+      <c r="D210" s="54"/>
       <c r="E210" s="33"/>
       <c r="F210" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="G210" s="53"/>
-      <c r="H210" s="37"/>
-      <c r="I210" s="37"/>
+        <v>123</v>
+      </c>
+      <c r="G210" s="56"/>
+      <c r="H210" s="42"/>
+      <c r="I210" s="42"/>
       <c r="J210" s="33"/>
       <c r="K210" s="33"/>
       <c r="M210"/>
@@ -9091,18 +9097,18 @@
       <c r="O210"/>
       <c r="P210"/>
     </row>
-    <row r="211" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="34"/>
-      <c r="B211" s="35"/>
-      <c r="C211" s="36"/>
-      <c r="D211" s="51"/>
+    <row r="211" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="37"/>
+      <c r="B211" s="40"/>
+      <c r="C211" s="41"/>
+      <c r="D211" s="53"/>
       <c r="E211" s="33"/>
       <c r="F211" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G211" s="54"/>
-      <c r="H211" s="37"/>
-      <c r="I211" s="37"/>
+        <v>124</v>
+      </c>
+      <c r="G211" s="57"/>
+      <c r="H211" s="42"/>
+      <c r="I211" s="42"/>
       <c r="J211" s="33"/>
       <c r="K211" s="33"/>
       <c r="M211"/>
@@ -9110,24 +9116,24 @@
       <c r="O211"/>
       <c r="P211"/>
     </row>
-    <row r="212" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="34"/>
-      <c r="B212" s="35"/>
-      <c r="C212" s="36"/>
-      <c r="D212" s="55" t="s">
-        <v>166</v>
+    <row r="212" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="37"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="41"/>
+      <c r="D212" s="58" t="s">
+        <v>161</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G212" s="33">
         <v>30</v>
       </c>
-      <c r="H212" s="37"/>
-      <c r="I212" s="37"/>
+      <c r="H212" s="42"/>
+      <c r="I212" s="42"/>
       <c r="J212" s="33"/>
       <c r="K212" s="33"/>
       <c r="M212"/>
@@ -9135,18 +9141,18 @@
       <c r="O212"/>
       <c r="P212"/>
     </row>
-    <row r="213" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="34"/>
-      <c r="B213" s="35"/>
-      <c r="C213" s="36"/>
-      <c r="D213" s="55"/>
+    <row r="213" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="37"/>
+      <c r="B213" s="40"/>
+      <c r="C213" s="41"/>
+      <c r="D213" s="58"/>
       <c r="E213" s="33"/>
       <c r="F213" s="27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G213" s="33"/>
-      <c r="H213" s="37"/>
-      <c r="I213" s="37"/>
+      <c r="H213" s="42"/>
+      <c r="I213" s="42"/>
       <c r="J213" s="33"/>
       <c r="K213" s="33"/>
       <c r="L213"/>
@@ -9155,18 +9161,18 @@
       <c r="O213"/>
       <c r="P213"/>
     </row>
-    <row r="214" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="34"/>
-      <c r="B214" s="35"/>
-      <c r="C214" s="36"/>
-      <c r="D214" s="55"/>
+    <row r="214" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="37"/>
+      <c r="B214" s="40"/>
+      <c r="C214" s="41"/>
+      <c r="D214" s="58"/>
       <c r="E214" s="33"/>
       <c r="F214" s="27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G214" s="33"/>
-      <c r="H214" s="37"/>
-      <c r="I214" s="37"/>
+      <c r="H214" s="42"/>
+      <c r="I214" s="42"/>
       <c r="J214" s="33"/>
       <c r="K214" s="33"/>
       <c r="L214"/>
@@ -9175,7 +9181,7 @@
       <c r="O214"/>
       <c r="P214"/>
     </row>
-    <row r="215" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -9190,19 +9196,19 @@
       <c r="O215"/>
       <c r="P215"/>
     </row>
-    <row r="216" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="34">
+    <row r="216" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="37">
         <v>17</v>
       </c>
-      <c r="B216" s="41"/>
-      <c r="C216" s="42" t="s">
-        <v>230</v>
+      <c r="B216" s="90"/>
+      <c r="C216" s="91" t="s">
+        <v>224</v>
       </c>
       <c r="D216" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E216" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F216" s="31" t="s">
         <v>7</v>
@@ -9210,16 +9216,16 @@
       <c r="G216" s="31">
         <v>1191819</v>
       </c>
-      <c r="H216" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I216" s="44">
+      <c r="H216" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="I216" s="92">
         <v>1191819</v>
       </c>
-      <c r="J216" s="43" t="s">
+      <c r="J216" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="K216" s="43">
+      <c r="K216" s="100">
         <v>3</v>
       </c>
       <c r="L216"/>
@@ -9228,115 +9234,115 @@
       <c r="O216"/>
       <c r="P216"/>
     </row>
-    <row r="217" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="34"/>
-      <c r="B217" s="41"/>
-      <c r="C217" s="42"/>
+    <row r="217" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="37"/>
+      <c r="B217" s="90"/>
+      <c r="C217" s="91"/>
       <c r="D217" s="30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E217" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F217" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G217" s="31">
         <v>360000</v>
       </c>
-      <c r="H217" s="43"/>
-      <c r="I217" s="45"/>
-      <c r="J217" s="43"/>
-      <c r="K217" s="43"/>
+      <c r="H217" s="100"/>
+      <c r="I217" s="93"/>
+      <c r="J217" s="100"/>
+      <c r="K217" s="100"/>
       <c r="L217"/>
       <c r="M217"/>
       <c r="N217"/>
       <c r="O217"/>
       <c r="P217"/>
     </row>
-    <row r="218" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="34"/>
-      <c r="B218" s="41"/>
-      <c r="C218" s="42"/>
+    <row r="218" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="37"/>
+      <c r="B218" s="90"/>
+      <c r="C218" s="91"/>
       <c r="D218" s="30" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E218" s="31" t="s">
         <v>6</v>
       </c>
       <c r="F218" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G218" s="31">
         <v>500</v>
       </c>
-      <c r="H218" s="43"/>
-      <c r="I218" s="45"/>
-      <c r="J218" s="43"/>
-      <c r="K218" s="43"/>
+      <c r="H218" s="100"/>
+      <c r="I218" s="93"/>
+      <c r="J218" s="100"/>
+      <c r="K218" s="100"/>
       <c r="L218"/>
       <c r="M218"/>
       <c r="N218"/>
       <c r="O218"/>
       <c r="P218"/>
     </row>
-    <row r="219" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="34"/>
-      <c r="B219" s="41"/>
-      <c r="C219" s="42"/>
-      <c r="D219" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="E219" s="44" t="s">
+    <row r="219" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="37"/>
+      <c r="B219" s="90"/>
+      <c r="C219" s="91"/>
+      <c r="D219" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="E219" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F219" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G219" s="44">
+      <c r="F219" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="G219" s="92">
         <v>25</v>
       </c>
-      <c r="H219" s="43"/>
-      <c r="I219" s="45"/>
-      <c r="J219" s="43"/>
-      <c r="K219" s="43"/>
+      <c r="H219" s="100"/>
+      <c r="I219" s="93"/>
+      <c r="J219" s="100"/>
+      <c r="K219" s="100"/>
       <c r="L219"/>
       <c r="M219"/>
       <c r="N219"/>
       <c r="O219"/>
       <c r="P219"/>
     </row>
-    <row r="220" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="34"/>
-      <c r="B220" s="41"/>
-      <c r="C220" s="42"/>
-      <c r="D220" s="48"/>
-      <c r="E220" s="46"/>
-      <c r="F220" s="46"/>
-      <c r="G220" s="46"/>
-      <c r="H220" s="43"/>
-      <c r="I220" s="46"/>
-      <c r="J220" s="43"/>
-      <c r="K220" s="43"/>
+    <row r="220" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="37"/>
+      <c r="B220" s="90"/>
+      <c r="C220" s="91"/>
+      <c r="D220" s="96"/>
+      <c r="E220" s="94"/>
+      <c r="F220" s="94"/>
+      <c r="G220" s="94"/>
+      <c r="H220" s="100"/>
+      <c r="I220" s="94"/>
+      <c r="J220" s="100"/>
+      <c r="K220" s="100"/>
       <c r="L220"/>
       <c r="M220"/>
       <c r="N220"/>
       <c r="O220"/>
       <c r="P220"/>
     </row>
-    <row r="221" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="34">
+    <row r="221" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="37">
         <v>18</v>
       </c>
-      <c r="B221" s="35"/>
-      <c r="C221" s="36" t="s">
-        <v>228</v>
+      <c r="B221" s="40"/>
+      <c r="C221" s="41" t="s">
+        <v>222</v>
       </c>
       <c r="D221" s="28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E221" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F221" s="27" t="s">
         <v>7</v>
@@ -9344,10 +9350,10 @@
       <c r="G221" s="27">
         <v>1190507</v>
       </c>
-      <c r="H221" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I221" s="38">
+      <c r="H221" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I221" s="97">
         <v>1190507</v>
       </c>
       <c r="J221" s="33" t="s">
@@ -9362,24 +9368,24 @@
       <c r="O221"/>
       <c r="P221"/>
     </row>
-    <row r="222" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="34"/>
-      <c r="B222" s="35"/>
-      <c r="C222" s="36"/>
+    <row r="222" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="37"/>
+      <c r="B222" s="40"/>
+      <c r="C222" s="41"/>
       <c r="D222" s="28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E222" s="27" t="s">
         <v>13</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G222" s="27">
         <v>360000</v>
       </c>
-      <c r="H222" s="37"/>
-      <c r="I222" s="39"/>
+      <c r="H222" s="42"/>
+      <c r="I222" s="98"/>
       <c r="J222" s="33"/>
       <c r="K222" s="33"/>
       <c r="L222"/>
@@ -9388,24 +9394,24 @@
       <c r="O222"/>
       <c r="P222"/>
     </row>
-    <row r="223" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="34"/>
-      <c r="B223" s="35"/>
-      <c r="C223" s="36"/>
+    <row r="223" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="37"/>
+      <c r="B223" s="40"/>
+      <c r="C223" s="41"/>
       <c r="D223" s="28" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E223" s="27" t="s">
         <v>6</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G223" s="27">
         <v>250</v>
       </c>
-      <c r="H223" s="37"/>
-      <c r="I223" s="39"/>
+      <c r="H223" s="42"/>
+      <c r="I223" s="98"/>
       <c r="J223" s="33"/>
       <c r="K223" s="33"/>
       <c r="L223"/>
@@ -9415,24 +9421,24 @@
       <c r="P223"/>
       <c r="Q223"/>
     </row>
-    <row r="224" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="34"/>
-      <c r="B224" s="35"/>
-      <c r="C224" s="36"/>
+    <row r="224" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="37"/>
+      <c r="B224" s="40"/>
+      <c r="C224" s="41"/>
       <c r="D224" s="28" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E224" s="27" t="s">
         <v>6</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G224" s="27">
         <v>20</v>
       </c>
-      <c r="H224" s="37"/>
-      <c r="I224" s="40"/>
+      <c r="H224" s="42"/>
+      <c r="I224" s="99"/>
       <c r="J224" s="33"/>
       <c r="K224" s="33"/>
       <c r="L224"/>
@@ -9442,19 +9448,19 @@
       <c r="P224"/>
       <c r="Q224"/>
     </row>
-    <row r="225" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="34">
+    <row r="225" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="37">
         <v>19</v>
       </c>
-      <c r="B225" s="41"/>
-      <c r="C225" s="42" t="s">
-        <v>229</v>
+      <c r="B225" s="90"/>
+      <c r="C225" s="91" t="s">
+        <v>223</v>
       </c>
       <c r="D225" s="30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E225" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F225" s="31" t="s">
         <v>7</v>
@@ -9462,16 +9468,16 @@
       <c r="G225" s="31">
         <v>1190601</v>
       </c>
-      <c r="H225" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I225" s="44">
+      <c r="H225" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="I225" s="92">
         <v>1190601</v>
       </c>
-      <c r="J225" s="43" t="s">
+      <c r="J225" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="K225" s="43">
+      <c r="K225" s="100">
         <v>3</v>
       </c>
       <c r="L225"/>
@@ -9481,26 +9487,26 @@
       <c r="P225"/>
       <c r="Q225"/>
     </row>
-    <row r="226" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="34"/>
-      <c r="B226" s="41"/>
-      <c r="C226" s="42"/>
+    <row r="226" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="37"/>
+      <c r="B226" s="90"/>
+      <c r="C226" s="91"/>
       <c r="D226" s="30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E226" s="31" t="s">
         <v>13</v>
       </c>
       <c r="F226" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G226" s="31">
         <v>360000</v>
       </c>
-      <c r="H226" s="43"/>
-      <c r="I226" s="45"/>
-      <c r="J226" s="43"/>
-      <c r="K226" s="43"/>
+      <c r="H226" s="100"/>
+      <c r="I226" s="93"/>
+      <c r="J226" s="100"/>
+      <c r="K226" s="100"/>
       <c r="L226"/>
       <c r="M226"/>
       <c r="N226"/>
@@ -9508,26 +9514,26 @@
       <c r="P226"/>
       <c r="Q226"/>
     </row>
-    <row r="227" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="34"/>
-      <c r="B227" s="41"/>
-      <c r="C227" s="42"/>
+    <row r="227" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="37"/>
+      <c r="B227" s="90"/>
+      <c r="C227" s="91"/>
       <c r="D227" s="30" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E227" s="31" t="s">
         <v>6</v>
       </c>
       <c r="F227" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G227" s="31">
         <v>750</v>
       </c>
-      <c r="H227" s="43"/>
-      <c r="I227" s="45"/>
-      <c r="J227" s="43"/>
-      <c r="K227" s="43"/>
+      <c r="H227" s="100"/>
+      <c r="I227" s="93"/>
+      <c r="J227" s="100"/>
+      <c r="K227" s="100"/>
       <c r="L227"/>
       <c r="M227"/>
       <c r="N227"/>
@@ -9535,26 +9541,26 @@
       <c r="P227"/>
       <c r="Q227"/>
     </row>
-    <row r="228" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="34"/>
-      <c r="B228" s="41"/>
-      <c r="C228" s="42"/>
+    <row r="228" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="37"/>
+      <c r="B228" s="90"/>
+      <c r="C228" s="91"/>
       <c r="D228" s="30" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E228" s="31" t="s">
         <v>6</v>
       </c>
       <c r="F228" s="31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G228" s="31">
         <v>20</v>
       </c>
-      <c r="H228" s="43"/>
-      <c r="I228" s="46"/>
-      <c r="J228" s="43"/>
-      <c r="K228" s="43"/>
+      <c r="H228" s="100"/>
+      <c r="I228" s="94"/>
+      <c r="J228" s="100"/>
+      <c r="K228" s="100"/>
       <c r="L228"/>
       <c r="M228"/>
       <c r="N228"/>
@@ -9562,7 +9568,7 @@
       <c r="P228"/>
       <c r="Q228"/>
     </row>
-    <row r="229" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -9578,19 +9584,19 @@
       <c r="P229"/>
       <c r="Q229"/>
     </row>
-    <row r="230" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="34">
+    <row r="230" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="37">
         <v>20</v>
       </c>
-      <c r="B230" s="35"/>
-      <c r="C230" s="36" t="s">
-        <v>227</v>
+      <c r="B230" s="40"/>
+      <c r="C230" s="41" t="s">
+        <v>221</v>
       </c>
       <c r="D230" s="28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E230" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F230" s="27" t="s">
         <v>7</v>
@@ -9598,10 +9604,10 @@
       <c r="G230" s="27">
         <v>1190304</v>
       </c>
-      <c r="H230" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I230" s="38">
+      <c r="H230" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I230" s="97">
         <v>1190304</v>
       </c>
       <c r="J230" s="33" t="s">
@@ -9617,24 +9623,24 @@
       <c r="P230"/>
       <c r="Q230"/>
     </row>
-    <row r="231" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="34"/>
-      <c r="B231" s="35"/>
-      <c r="C231" s="36"/>
+    <row r="231" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="37"/>
+      <c r="B231" s="40"/>
+      <c r="C231" s="41"/>
       <c r="D231" s="28" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E231" s="27" t="s">
         <v>6</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G231" s="27">
         <v>10000</v>
       </c>
-      <c r="H231" s="37"/>
-      <c r="I231" s="39"/>
+      <c r="H231" s="42"/>
+      <c r="I231" s="98"/>
       <c r="J231" s="33"/>
       <c r="K231" s="33"/>
       <c r="L231"/>
@@ -9644,24 +9650,24 @@
       <c r="P231"/>
       <c r="Q231"/>
     </row>
-    <row r="232" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="34"/>
-      <c r="B232" s="35"/>
-      <c r="C232" s="36"/>
+    <row r="232" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="37"/>
+      <c r="B232" s="40"/>
+      <c r="C232" s="41"/>
       <c r="D232" s="28" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E232" s="27" t="s">
         <v>6</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G232" s="27">
         <v>1800</v>
       </c>
-      <c r="H232" s="37"/>
-      <c r="I232" s="40"/>
+      <c r="H232" s="42"/>
+      <c r="I232" s="99"/>
       <c r="J232" s="33"/>
       <c r="K232" s="33"/>
       <c r="L232"/>
@@ -9671,7 +9677,7 @@
       <c r="P232"/>
       <c r="Q232"/>
     </row>
-    <row r="233" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L233"/>
       <c r="M233"/>
       <c r="N233"/>
@@ -9679,92 +9685,640 @@
       <c r="P233"/>
       <c r="Q233"/>
     </row>
-    <row r="234" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M234"/>
       <c r="N234"/>
     </row>
-    <row r="235" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M235"/>
       <c r="N235"/>
     </row>
-    <row r="236" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M236"/>
       <c r="N236"/>
     </row>
-    <row r="237" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M237"/>
       <c r="N237"/>
     </row>
-    <row r="238" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M238"/>
       <c r="N238"/>
     </row>
-    <row r="239" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M239"/>
       <c r="N239"/>
     </row>
-    <row r="240" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M240"/>
       <c r="N240"/>
     </row>
-    <row r="241" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M241"/>
       <c r="N241"/>
     </row>
-    <row r="242" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M242"/>
       <c r="N242"/>
     </row>
-    <row r="243" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M243"/>
       <c r="N243"/>
     </row>
-    <row r="244" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M244"/>
       <c r="N244"/>
     </row>
-    <row r="245" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M245"/>
       <c r="N245"/>
     </row>
-    <row r="246" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M246"/>
       <c r="N246"/>
     </row>
-    <row r="247" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M247"/>
       <c r="N247"/>
     </row>
-    <row r="248" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M248"/>
       <c r="N248"/>
     </row>
-    <row r="249" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M249"/>
       <c r="N249"/>
     </row>
-    <row r="250" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M250"/>
       <c r="N250"/>
     </row>
-    <row r="251" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M251"/>
       <c r="N251"/>
     </row>
-    <row r="252" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M252"/>
       <c r="N252"/>
     </row>
-    <row r="253" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M253"/>
       <c r="N253"/>
     </row>
-    <row r="254" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="13:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M254"/>
       <c r="N254"/>
     </row>
   </sheetData>
   <mergeCells count="572">
+    <mergeCell ref="J230:J232"/>
+    <mergeCell ref="K230:K232"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="B230:B232"/>
+    <mergeCell ref="C230:C232"/>
+    <mergeCell ref="H230:H232"/>
+    <mergeCell ref="I230:I232"/>
+    <mergeCell ref="J221:J224"/>
+    <mergeCell ref="K221:K224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="C225:C228"/>
+    <mergeCell ref="H225:H228"/>
+    <mergeCell ref="I225:I228"/>
+    <mergeCell ref="J225:J228"/>
+    <mergeCell ref="K225:K228"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="H221:H224"/>
+    <mergeCell ref="I221:I224"/>
+    <mergeCell ref="K208:K214"/>
+    <mergeCell ref="A216:A220"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="C216:C220"/>
+    <mergeCell ref="H216:H220"/>
+    <mergeCell ref="I216:I220"/>
+    <mergeCell ref="J216:J220"/>
+    <mergeCell ref="K216:K220"/>
+    <mergeCell ref="A208:A214"/>
+    <mergeCell ref="B208:B214"/>
+    <mergeCell ref="C208:C214"/>
+    <mergeCell ref="H208:H214"/>
+    <mergeCell ref="I208:I214"/>
+    <mergeCell ref="J208:J214"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="E219:E220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="D209:D211"/>
+    <mergeCell ref="E209:E211"/>
+    <mergeCell ref="G209:G211"/>
+    <mergeCell ref="D212:D214"/>
+    <mergeCell ref="E212:E214"/>
+    <mergeCell ref="G212:G214"/>
+    <mergeCell ref="J201:J203"/>
+    <mergeCell ref="K201:K203"/>
+    <mergeCell ref="A204:A206"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="C204:C206"/>
+    <mergeCell ref="H204:H206"/>
+    <mergeCell ref="I204:I206"/>
+    <mergeCell ref="J204:J206"/>
+    <mergeCell ref="K204:K206"/>
+    <mergeCell ref="A201:A203"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="C201:C203"/>
+    <mergeCell ref="H201:H203"/>
+    <mergeCell ref="I201:I203"/>
+    <mergeCell ref="J193:J196"/>
+    <mergeCell ref="K193:K196"/>
+    <mergeCell ref="A197:A200"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="C197:C200"/>
+    <mergeCell ref="H197:H200"/>
+    <mergeCell ref="I197:I200"/>
+    <mergeCell ref="J197:J200"/>
+    <mergeCell ref="K197:K200"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="C193:C196"/>
+    <mergeCell ref="H193:H196"/>
+    <mergeCell ref="I193:I196"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="G198:G199"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="J187:J189"/>
+    <mergeCell ref="K187:K189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="H190:H192"/>
+    <mergeCell ref="I190:I192"/>
+    <mergeCell ref="J190:J192"/>
+    <mergeCell ref="K190:K192"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="H187:H189"/>
+    <mergeCell ref="I187:I189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="G188:G189"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="J180:J182"/>
+    <mergeCell ref="K180:K182"/>
+    <mergeCell ref="A183:A185"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="C183:C185"/>
+    <mergeCell ref="H183:H185"/>
+    <mergeCell ref="I183:I185"/>
+    <mergeCell ref="J183:J185"/>
+    <mergeCell ref="K183:K185"/>
+    <mergeCell ref="A180:A182"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="H180:H182"/>
+    <mergeCell ref="I180:I182"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="J174:J176"/>
+    <mergeCell ref="K174:K176"/>
+    <mergeCell ref="A177:A179"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="C177:C179"/>
+    <mergeCell ref="H177:H179"/>
+    <mergeCell ref="I177:I179"/>
+    <mergeCell ref="J177:J179"/>
+    <mergeCell ref="K177:K179"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="H174:H176"/>
+    <mergeCell ref="I174:I176"/>
+    <mergeCell ref="J168:J170"/>
+    <mergeCell ref="K168:K170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="H171:H173"/>
+    <mergeCell ref="I171:I173"/>
+    <mergeCell ref="J171:J173"/>
+    <mergeCell ref="K171:K173"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="H168:H170"/>
+    <mergeCell ref="I168:I170"/>
+    <mergeCell ref="J162:J164"/>
+    <mergeCell ref="K162:K164"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="H165:H167"/>
+    <mergeCell ref="I165:I167"/>
+    <mergeCell ref="J165:J167"/>
+    <mergeCell ref="K165:K167"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="H162:H164"/>
+    <mergeCell ref="I162:I164"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="D156:G156"/>
+    <mergeCell ref="H156:K158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:G157"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="H159:H161"/>
+    <mergeCell ref="I159:I161"/>
+    <mergeCell ref="J159:J161"/>
+    <mergeCell ref="K159:K161"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="F142:F143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="I152:I154"/>
+    <mergeCell ref="J152:J154"/>
+    <mergeCell ref="K152:K154"/>
+    <mergeCell ref="H4:K6"/>
+    <mergeCell ref="H79:K81"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="H152:H154"/>
+    <mergeCell ref="I144:I146"/>
+    <mergeCell ref="J144:J146"/>
+    <mergeCell ref="K144:K146"/>
+    <mergeCell ref="A147:A150"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="C147:C150"/>
+    <mergeCell ref="H147:H150"/>
+    <mergeCell ref="I147:I150"/>
+    <mergeCell ref="J147:J150"/>
+    <mergeCell ref="K147:K150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="G149:G150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="H144:H146"/>
+    <mergeCell ref="J132:J138"/>
+    <mergeCell ref="K132:K138"/>
+    <mergeCell ref="A140:A143"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="H140:H143"/>
+    <mergeCell ref="I140:I143"/>
+    <mergeCell ref="J140:J143"/>
+    <mergeCell ref="K140:K143"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="G133:G135"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="G136:G138"/>
+    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="B132:B138"/>
+    <mergeCell ref="C132:C138"/>
+    <mergeCell ref="H132:H138"/>
+    <mergeCell ref="I132:I138"/>
+    <mergeCell ref="D142:D143"/>
+    <mergeCell ref="I123:I125"/>
+    <mergeCell ref="J123:J125"/>
+    <mergeCell ref="K123:K125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="H126:H128"/>
+    <mergeCell ref="I126:I128"/>
+    <mergeCell ref="J126:J128"/>
+    <mergeCell ref="K126:K128"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="H123:H125"/>
+    <mergeCell ref="I116:I119"/>
+    <mergeCell ref="J116:J119"/>
+    <mergeCell ref="K116:K119"/>
+    <mergeCell ref="A120:A122"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="H120:H122"/>
+    <mergeCell ref="I120:I122"/>
+    <mergeCell ref="J120:J122"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="A116:A119"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="H116:H119"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="K110:K112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="K113:K115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="K106:K108"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="J97:J99"/>
+    <mergeCell ref="K97:K99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="J91:J93"/>
+    <mergeCell ref="K91:K93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="H91:H93"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="J85:J87"/>
+    <mergeCell ref="K85:K87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="J88:J90"/>
+    <mergeCell ref="K88:K90"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="J82:J84"/>
+    <mergeCell ref="K82:K84"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="K62:K64"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="K75:K77"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
     <mergeCell ref="E54:E56"/>
     <mergeCell ref="E50:E52"/>
     <mergeCell ref="E47:E49"/>
@@ -9789,554 +10343,6 @@
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="K75:K77"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="J82:J84"/>
-    <mergeCell ref="K82:K84"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="J75:J77"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="K62:K64"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="J85:J87"/>
-    <mergeCell ref="K85:K87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="J88:J90"/>
-    <mergeCell ref="K88:K90"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="H91:H93"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="J100:J102"/>
-    <mergeCell ref="K100:K102"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="J103:J105"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="J106:J108"/>
-    <mergeCell ref="K106:K108"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="J110:J112"/>
-    <mergeCell ref="K110:K112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="K113:K115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I116:I119"/>
-    <mergeCell ref="J116:J119"/>
-    <mergeCell ref="K116:K119"/>
-    <mergeCell ref="A120:A122"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="H120:H122"/>
-    <mergeCell ref="I120:I122"/>
-    <mergeCell ref="J120:J122"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="A116:A119"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="H116:H119"/>
-    <mergeCell ref="I123:I125"/>
-    <mergeCell ref="J123:J125"/>
-    <mergeCell ref="K123:K125"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="H126:H128"/>
-    <mergeCell ref="I126:I128"/>
-    <mergeCell ref="J126:J128"/>
-    <mergeCell ref="K126:K128"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="H123:H125"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="H144:H146"/>
-    <mergeCell ref="J132:J138"/>
-    <mergeCell ref="K132:K138"/>
-    <mergeCell ref="A140:A143"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="H140:H143"/>
-    <mergeCell ref="I140:I143"/>
-    <mergeCell ref="J140:J143"/>
-    <mergeCell ref="K140:K143"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="E133:E135"/>
-    <mergeCell ref="G133:G135"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="E136:E138"/>
-    <mergeCell ref="G136:G138"/>
-    <mergeCell ref="A132:A138"/>
-    <mergeCell ref="B132:B138"/>
-    <mergeCell ref="C132:C138"/>
-    <mergeCell ref="H132:H138"/>
-    <mergeCell ref="I132:I138"/>
-    <mergeCell ref="D142:D143"/>
-    <mergeCell ref="I152:I154"/>
-    <mergeCell ref="J152:J154"/>
-    <mergeCell ref="K152:K154"/>
-    <mergeCell ref="H4:K6"/>
-    <mergeCell ref="H79:K81"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="H152:H154"/>
-    <mergeCell ref="I144:I146"/>
-    <mergeCell ref="J144:J146"/>
-    <mergeCell ref="K144:K146"/>
-    <mergeCell ref="A147:A150"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="C147:C150"/>
-    <mergeCell ref="H147:H150"/>
-    <mergeCell ref="I147:I150"/>
-    <mergeCell ref="J147:J150"/>
-    <mergeCell ref="K147:K150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="G149:G150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="A144:A146"/>
-    <mergeCell ref="G142:G143"/>
-    <mergeCell ref="F142:F143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="D156:G156"/>
-    <mergeCell ref="H156:K158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:G157"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="H159:H161"/>
-    <mergeCell ref="I159:I161"/>
-    <mergeCell ref="J159:J161"/>
-    <mergeCell ref="K159:K161"/>
-    <mergeCell ref="J162:J164"/>
-    <mergeCell ref="K162:K164"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="H165:H167"/>
-    <mergeCell ref="I165:I167"/>
-    <mergeCell ref="J165:J167"/>
-    <mergeCell ref="K165:K167"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="H162:H164"/>
-    <mergeCell ref="I162:I164"/>
-    <mergeCell ref="J168:J170"/>
-    <mergeCell ref="K168:K170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="H171:H173"/>
-    <mergeCell ref="I171:I173"/>
-    <mergeCell ref="J171:J173"/>
-    <mergeCell ref="K171:K173"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="C168:C170"/>
-    <mergeCell ref="H168:H170"/>
-    <mergeCell ref="I168:I170"/>
-    <mergeCell ref="J174:J176"/>
-    <mergeCell ref="K174:K176"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="H177:H179"/>
-    <mergeCell ref="I177:I179"/>
-    <mergeCell ref="J177:J179"/>
-    <mergeCell ref="K177:K179"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="H174:H176"/>
-    <mergeCell ref="I174:I176"/>
-    <mergeCell ref="J180:J182"/>
-    <mergeCell ref="K180:K182"/>
-    <mergeCell ref="A183:A185"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="C183:C185"/>
-    <mergeCell ref="H183:H185"/>
-    <mergeCell ref="I183:I185"/>
-    <mergeCell ref="J183:J185"/>
-    <mergeCell ref="K183:K185"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="H180:H182"/>
-    <mergeCell ref="I180:I182"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="J187:J189"/>
-    <mergeCell ref="K187:K189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="B190:B192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="H190:H192"/>
-    <mergeCell ref="I190:I192"/>
-    <mergeCell ref="J190:J192"/>
-    <mergeCell ref="K190:K192"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="C187:C189"/>
-    <mergeCell ref="H187:H189"/>
-    <mergeCell ref="I187:I189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="D191:D192"/>
-    <mergeCell ref="G188:G189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="E191:E192"/>
-    <mergeCell ref="F191:F192"/>
-    <mergeCell ref="G191:G192"/>
-    <mergeCell ref="J193:J196"/>
-    <mergeCell ref="K193:K196"/>
-    <mergeCell ref="A197:A200"/>
-    <mergeCell ref="B197:B200"/>
-    <mergeCell ref="C197:C200"/>
-    <mergeCell ref="H197:H200"/>
-    <mergeCell ref="I197:I200"/>
-    <mergeCell ref="J197:J200"/>
-    <mergeCell ref="K197:K200"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="C193:C196"/>
-    <mergeCell ref="H193:H196"/>
-    <mergeCell ref="I193:I196"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="G198:G199"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="J201:J203"/>
-    <mergeCell ref="K201:K203"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="B204:B206"/>
-    <mergeCell ref="C204:C206"/>
-    <mergeCell ref="H204:H206"/>
-    <mergeCell ref="I204:I206"/>
-    <mergeCell ref="J204:J206"/>
-    <mergeCell ref="K204:K206"/>
-    <mergeCell ref="A201:A203"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="C201:C203"/>
-    <mergeCell ref="H201:H203"/>
-    <mergeCell ref="I201:I203"/>
-    <mergeCell ref="K208:K214"/>
-    <mergeCell ref="A216:A220"/>
-    <mergeCell ref="B216:B220"/>
-    <mergeCell ref="C216:C220"/>
-    <mergeCell ref="H216:H220"/>
-    <mergeCell ref="I216:I220"/>
-    <mergeCell ref="J216:J220"/>
-    <mergeCell ref="K216:K220"/>
-    <mergeCell ref="A208:A214"/>
-    <mergeCell ref="B208:B214"/>
-    <mergeCell ref="C208:C214"/>
-    <mergeCell ref="H208:H214"/>
-    <mergeCell ref="I208:I214"/>
-    <mergeCell ref="J208:J214"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="E219:E220"/>
-    <mergeCell ref="D219:D220"/>
-    <mergeCell ref="D209:D211"/>
-    <mergeCell ref="E209:E211"/>
-    <mergeCell ref="G209:G211"/>
-    <mergeCell ref="D212:D214"/>
-    <mergeCell ref="E212:E214"/>
-    <mergeCell ref="G212:G214"/>
-    <mergeCell ref="J230:J232"/>
-    <mergeCell ref="K230:K232"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="B230:B232"/>
-    <mergeCell ref="C230:C232"/>
-    <mergeCell ref="H230:H232"/>
-    <mergeCell ref="I230:I232"/>
-    <mergeCell ref="J221:J224"/>
-    <mergeCell ref="K221:K224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="C225:C228"/>
-    <mergeCell ref="H225:H228"/>
-    <mergeCell ref="I225:I228"/>
-    <mergeCell ref="J225:J228"/>
-    <mergeCell ref="K225:K228"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="H221:H224"/>
-    <mergeCell ref="I221:I224"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
